--- a/test/files/BFR5-Household-Questionnaire-v6-jef.xlsx
+++ b/test/files/BFR5-Household-Questionnaire-v6-jef.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="1816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="1821">
   <si>
     <t>type</t>
   </si>
@@ -5576,9 +5576,6 @@
 RELANCER : Autre chose ?</t>
   </si>
   <si>
-    <t>ppp_input</t>
-  </si>
-  <si>
     <t>Une liste de régions.</t>
   </si>
   <si>
@@ -5659,6 +5656,24 @@
   </si>
   <si>
     <t>deletion</t>
+  </si>
+  <si>
+    <t>ppp_input::English</t>
+  </si>
+  <si>
+    <t>A list of regions.</t>
+  </si>
+  <si>
+    <t>A list of provinces.</t>
+  </si>
+  <si>
+    <t>A list of communes.</t>
+  </si>
+  <si>
+    <t>A list of Eas.</t>
+  </si>
+  <si>
+    <t>ppp_input::Français</t>
   </si>
 </sst>
 </file>
@@ -5994,7 +6009,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="810">
+  <cellStyleXfs count="816">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6483,6 +6498,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7111,7 +7132,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="810">
+  <cellStyles count="816">
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
@@ -7515,6 +7536,9 @@
     <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="807" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
@@ -7918,6 +7942,9 @@
     <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="806" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="55" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="126"/>
@@ -8221,13 +8248,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW377"/>
+  <dimension ref="A1:IX377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L214" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C226" sqref="C226"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8244,11 +8271,11 @@
     <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
     <col min="18" max="20" width="15.1640625" style="1"/>
     <col min="21" max="21" width="15.1640625" style="50"/>
-    <col min="22" max="22" width="15.1640625" style="1"/>
-    <col min="26" max="16384" width="15.1640625" style="1"/>
+    <col min="22" max="23" width="15.1640625" style="1"/>
+    <col min="27" max="16384" width="15.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" ht="28">
+    <row r="1" spans="1:256" ht="28">
       <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
@@ -8301,7 +8328,7 @@
         <v>1770</v>
       </c>
       <c r="R1" s="62" t="s">
-        <v>1791</v>
+        <v>1815</v>
       </c>
       <c r="S1" s="62" t="s">
         <v>1165</v>
@@ -8315,23 +8342,26 @@
       <c r="V1" s="62" t="s">
         <v>1164</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="62" t="s">
+        <v>1820</v>
+      </c>
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1657</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1658</v>
       </c>
-      <c r="AK1" s="83"/>
       <c r="AL1" s="83"/>
       <c r="AM1" s="83"/>
       <c r="AN1" s="83"/>
       <c r="AO1" s="83"/>
       <c r="AP1" s="83"/>
-    </row>
-    <row r="2" spans="1:255" s="4" customFormat="1" ht="56">
+      <c r="AQ1" s="83"/>
+    </row>
+    <row r="2" spans="1:256" s="4" customFormat="1" ht="56">
       <c r="A2" s="62" t="s">
         <v>17</v>
       </c>
@@ -8362,10 +8392,10 @@
       <c r="T2" s="62"/>
       <c r="U2" s="63"/>
       <c r="V2" s="62"/>
-      <c r="W2"/>
+      <c r="W2" s="62"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2" s="89"/>
+      <c r="Z2"/>
       <c r="AA2" s="89"/>
       <c r="AB2" s="89"/>
       <c r="AC2" s="89"/>
@@ -8376,8 +8406,9 @@
       <c r="AH2" s="89"/>
       <c r="AI2" s="89"/>
       <c r="AJ2" s="89"/>
-    </row>
-    <row r="3" spans="1:255" s="2" customFormat="1" ht="84">
+      <c r="AK2" s="89"/>
+    </row>
+    <row r="3" spans="1:256" s="2" customFormat="1" ht="84">
       <c r="A3" s="62" t="s">
         <v>20</v>
       </c>
@@ -8418,19 +8449,20 @@
       <c r="V3" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="W3" s="105" t="s">
+      <c r="W3" s="62"/>
+      <c r="X3" s="105" t="s">
         <v>1659</v>
       </c>
-      <c r="X3"/>
       <c r="Y3"/>
-      <c r="AK3" s="3"/>
+      <c r="Z3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
-    </row>
-    <row r="4" spans="1:255" s="2" customFormat="1" ht="42">
+      <c r="AQ3" s="3"/>
+    </row>
+    <row r="4" spans="1:256" s="2" customFormat="1" ht="42">
       <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
@@ -8473,21 +8505,22 @@
       <c r="V4" s="87" t="s">
         <v>1140</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="62"/>
+      <c r="X4" s="105" t="s">
         <v>1660</v>
       </c>
-      <c r="X4" s="105" t="s">
+      <c r="Y4" s="105" t="s">
         <v>1661</v>
       </c>
-      <c r="Y4"/>
-      <c r="AK4" s="3"/>
+      <c r="Z4"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
-    </row>
-    <row r="5" spans="1:255" ht="42">
+      <c r="AQ4" s="3"/>
+    </row>
+    <row r="5" spans="1:256" ht="42">
       <c r="A5" s="62" t="s">
         <v>28</v>
       </c>
@@ -8524,14 +8557,15 @@
       <c r="V5" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="AK5" s="83"/>
+      <c r="W5" s="62"/>
       <c r="AL5" s="83"/>
       <c r="AM5" s="83"/>
       <c r="AN5" s="83"/>
       <c r="AO5" s="83"/>
       <c r="AP5" s="83"/>
-    </row>
-    <row r="6" spans="1:255" ht="28">
+      <c r="AQ5" s="83"/>
+    </row>
+    <row r="6" spans="1:256" ht="28">
       <c r="A6" s="62" t="s">
         <v>31</v>
       </c>
@@ -8574,17 +8608,18 @@
       <c r="V6" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="W6" s="105" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="AK6" s="83"/>
       <c r="AL6" s="83"/>
       <c r="AM6" s="83"/>
       <c r="AN6" s="83"/>
       <c r="AO6" s="83"/>
       <c r="AP6" s="83"/>
-    </row>
-    <row r="7" spans="1:255" ht="42">
+      <c r="AQ6" s="83"/>
+    </row>
+    <row r="7" spans="1:256" ht="42">
       <c r="A7" s="62" t="s">
         <v>20</v>
       </c>
@@ -8621,17 +8656,18 @@
         <v>38</v>
       </c>
       <c r="V7" s="62"/>
-      <c r="W7" s="105" t="s">
+      <c r="W7" s="62"/>
+      <c r="X7" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="AK7" s="83"/>
       <c r="AL7" s="83"/>
       <c r="AM7" s="83"/>
       <c r="AN7" s="83"/>
       <c r="AO7" s="83"/>
       <c r="AP7" s="83"/>
-    </row>
-    <row r="8" spans="1:255">
+      <c r="AQ7" s="83"/>
+    </row>
+    <row r="8" spans="1:256">
       <c r="A8" s="62" t="s">
         <v>39</v>
       </c>
@@ -8660,14 +8696,15 @@
       <c r="T8" s="62"/>
       <c r="U8" s="63"/>
       <c r="V8" s="62"/>
-      <c r="AK8" s="83"/>
+      <c r="W8" s="62"/>
       <c r="AL8" s="83"/>
       <c r="AM8" s="83"/>
       <c r="AN8" s="83"/>
       <c r="AO8" s="83"/>
       <c r="AP8" s="83"/>
-    </row>
-    <row r="9" spans="1:255" ht="70">
+      <c r="AQ8" s="83"/>
+    </row>
+    <row r="9" spans="1:256" ht="70">
       <c r="A9" s="62" t="s">
         <v>31</v>
       </c>
@@ -8714,20 +8751,21 @@
       <c r="V9" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="W9" s="105" t="s">
+      <c r="W9" s="62"/>
+      <c r="X9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="105" t="s">
+      <c r="Z9" s="105" t="s">
         <v>1662</v>
       </c>
-      <c r="AK9" s="83"/>
       <c r="AL9" s="83"/>
       <c r="AM9" s="83"/>
       <c r="AN9" s="83"/>
       <c r="AO9" s="83"/>
       <c r="AP9" s="83"/>
-    </row>
-    <row r="10" spans="1:255" ht="70">
+      <c r="AQ9" s="83"/>
+    </row>
+    <row r="10" spans="1:256" ht="70">
       <c r="A10" s="64" t="s">
         <v>17</v>
       </c>
@@ -8758,7 +8796,7 @@
       <c r="T10" s="67"/>
       <c r="U10" s="64"/>
       <c r="V10" s="67"/>
-      <c r="Z10" s="42"/>
+      <c r="W10" s="62"/>
       <c r="AA10" s="42"/>
       <c r="AB10" s="42"/>
       <c r="AC10" s="42"/>
@@ -8769,13 +8807,13 @@
       <c r="AH10" s="42"/>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="42"/>
-      <c r="AK10" s="22"/>
+      <c r="AK10" s="42"/>
       <c r="AL10" s="22"/>
       <c r="AM10" s="22"/>
       <c r="AN10" s="22"/>
       <c r="AO10" s="22"/>
       <c r="AP10" s="22"/>
-      <c r="AQ10" s="42"/>
+      <c r="AQ10" s="22"/>
       <c r="AR10" s="42"/>
       <c r="AS10" s="42"/>
       <c r="AT10" s="42"/>
@@ -8988,8 +9026,9 @@
       <c r="IS10" s="42"/>
       <c r="IT10" s="42"/>
       <c r="IU10" s="42"/>
-    </row>
-    <row r="11" spans="1:255">
+      <c r="IV10" s="42"/>
+    </row>
+    <row r="11" spans="1:256">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -9007,7 +9046,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:255" ht="28">
+    <row r="12" spans="1:256" ht="28">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -9027,14 +9066,17 @@
         <v>1780</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>1792</v>
+        <v>1816</v>
       </c>
       <c r="U12" s="48"/>
-      <c r="W12" s="105" t="s">
+      <c r="W12" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="X12" s="105" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="13" spans="1:255" ht="28">
+    <row r="13" spans="1:256" ht="28">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -9054,14 +9096,17 @@
         <v>1780</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1793</v>
+        <v>1817</v>
       </c>
       <c r="U13" s="48"/>
-      <c r="W13" s="48" t="s">
+      <c r="W13" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="X13" s="48" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="14" spans="1:255" ht="28">
+    <row r="14" spans="1:256" ht="28">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -9081,14 +9126,17 @@
         <v>1780</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>1794</v>
+        <v>1818</v>
       </c>
       <c r="U14" s="48"/>
-      <c r="W14" s="48" t="s">
+      <c r="W14" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="X14" s="48" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="15" spans="1:255" ht="28">
+    <row r="15" spans="1:256" ht="28">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -9108,14 +9156,17 @@
         <v>1780</v>
       </c>
       <c r="R15" s="66" t="s">
-        <v>1795</v>
+        <v>1819</v>
       </c>
       <c r="U15" s="48"/>
-      <c r="W15" s="105" t="s">
+      <c r="W15" s="66" t="s">
+        <v>1794</v>
+      </c>
+      <c r="X15" s="105" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="16" spans="1:255" ht="98">
+    <row r="16" spans="1:256" ht="98">
       <c r="A16" s="62" t="s">
         <v>60</v>
       </c>
@@ -9162,23 +9213,24 @@
       <c r="V16" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W16" s="105" t="s">
+      <c r="W16" s="62"/>
+      <c r="X16" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="X16" s="105" t="s">
+      <c r="Y16" s="105" t="s">
         <v>1665</v>
       </c>
-      <c r="Y16" s="105" t="s">
+      <c r="Z16" s="105" t="s">
         <v>1666</v>
       </c>
-      <c r="AK16" s="83"/>
       <c r="AL16" s="83"/>
       <c r="AM16" s="83"/>
       <c r="AN16" s="83"/>
       <c r="AO16" s="83"/>
       <c r="AP16" s="83"/>
-    </row>
-    <row r="17" spans="1:42" ht="98">
+      <c r="AQ16" s="83"/>
+    </row>
+    <row r="17" spans="1:43" ht="98">
       <c r="A17" s="62" t="s">
         <v>60</v>
       </c>
@@ -9225,23 +9277,24 @@
       <c r="V17" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W17" s="105" t="s">
+      <c r="W17" s="66"/>
+      <c r="X17" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="X17" s="105" t="s">
+      <c r="Y17" s="105" t="s">
         <v>1667</v>
       </c>
-      <c r="Y17" s="105" t="s">
+      <c r="Z17" s="105" t="s">
         <v>1666</v>
       </c>
-      <c r="AK17" s="83"/>
       <c r="AL17" s="83"/>
       <c r="AM17" s="83"/>
       <c r="AN17" s="83"/>
       <c r="AO17" s="83"/>
       <c r="AP17" s="83"/>
-    </row>
-    <row r="18" spans="1:42" ht="140">
+      <c r="AQ17" s="83"/>
+    </row>
+    <row r="18" spans="1:43" ht="140">
       <c r="A18" s="62" t="s">
         <v>20</v>
       </c>
@@ -9284,20 +9337,21 @@
       <c r="V18" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W18" s="105" t="s">
+      <c r="W18" s="120"/>
+      <c r="X18" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="105" t="s">
+      <c r="Y18" s="105" t="s">
         <v>1668</v>
       </c>
-      <c r="AK18" s="83"/>
       <c r="AL18" s="83"/>
       <c r="AM18" s="83"/>
       <c r="AN18" s="83"/>
       <c r="AO18" s="83"/>
       <c r="AP18" s="83"/>
-    </row>
-    <row r="19" spans="1:42" ht="70">
+      <c r="AQ18" s="83"/>
+    </row>
+    <row r="19" spans="1:43" ht="70">
       <c r="A19" s="62" t="s">
         <v>72</v>
       </c>
@@ -9340,17 +9394,18 @@
       <c r="V19" s="62" t="s">
         <v>1141</v>
       </c>
-      <c r="W19" s="105" t="s">
+      <c r="W19" s="62"/>
+      <c r="X19" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="AK19" s="83"/>
       <c r="AL19" s="83"/>
       <c r="AM19" s="83"/>
       <c r="AN19" s="83"/>
       <c r="AO19" s="83"/>
       <c r="AP19" s="83"/>
-    </row>
-    <row r="20" spans="1:42" ht="56">
+      <c r="AQ19" s="83"/>
+    </row>
+    <row r="20" spans="1:43" ht="56">
       <c r="A20" s="62" t="s">
         <v>76</v>
       </c>
@@ -9395,20 +9450,21 @@
       <c r="V20" s="62" t="s">
         <v>1141</v>
       </c>
-      <c r="W20" s="105" t="s">
+      <c r="W20" s="62"/>
+      <c r="X20" s="105" t="s">
         <v>1563</v>
       </c>
-      <c r="X20" s="105" t="s">
+      <c r="Y20" s="105" t="s">
         <v>1669</v>
       </c>
-      <c r="AK20" s="83"/>
       <c r="AL20" s="83"/>
       <c r="AM20" s="83"/>
       <c r="AN20" s="83"/>
       <c r="AO20" s="83"/>
       <c r="AP20" s="83"/>
-    </row>
-    <row r="21" spans="1:42" ht="154">
+      <c r="AQ20" s="83"/>
+    </row>
+    <row r="21" spans="1:43" ht="154">
       <c r="A21" s="62" t="s">
         <v>72</v>
       </c>
@@ -9453,20 +9509,21 @@
       <c r="V21" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W21" s="105" t="s">
+      <c r="W21" s="66"/>
+      <c r="X21" s="105" t="s">
         <v>1565</v>
       </c>
-      <c r="X21" s="105" t="s">
+      <c r="Y21" s="105" t="s">
         <v>1670</v>
       </c>
-      <c r="AK21" s="83"/>
       <c r="AL21" s="83"/>
       <c r="AM21" s="83"/>
       <c r="AN21" s="83"/>
       <c r="AO21" s="83"/>
       <c r="AP21" s="83"/>
-    </row>
-    <row r="22" spans="1:42" ht="112">
+      <c r="AQ21" s="83"/>
+    </row>
+    <row r="22" spans="1:43" ht="112">
       <c r="A22" s="62" t="s">
         <v>20</v>
       </c>
@@ -9507,17 +9564,18 @@
       <c r="V22" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W22" s="105" t="s">
+      <c r="W22" s="66"/>
+      <c r="X22" s="105" t="s">
         <v>1671</v>
       </c>
-      <c r="AK22" s="83"/>
       <c r="AL22" s="83"/>
       <c r="AM22" s="83"/>
       <c r="AN22" s="83"/>
       <c r="AO22" s="83"/>
       <c r="AP22" s="83"/>
-    </row>
-    <row r="23" spans="1:42" s="36" customFormat="1" ht="70">
+      <c r="AQ22" s="83"/>
+    </row>
+    <row r="23" spans="1:43" s="36" customFormat="1" ht="70">
       <c r="A23" s="69" t="s">
         <v>84</v>
       </c>
@@ -9560,12 +9618,12 @@
       <c r="V23" s="69" t="s">
         <v>576</v>
       </c>
-      <c r="W23" s="105" t="s">
+      <c r="W23" s="66"/>
+      <c r="X23" s="105" t="s">
         <v>1567</v>
       </c>
-      <c r="X23"/>
       <c r="Y23"/>
-      <c r="Z23" s="91"/>
+      <c r="Z23"/>
       <c r="AA23" s="91"/>
       <c r="AB23" s="91"/>
       <c r="AC23" s="91"/>
@@ -9576,8 +9634,9 @@
       <c r="AH23" s="91"/>
       <c r="AI23" s="91"/>
       <c r="AJ23" s="91"/>
-    </row>
-    <row r="24" spans="1:42" s="37" customFormat="1" ht="140">
+      <c r="AK23" s="91"/>
+    </row>
+    <row r="24" spans="1:43" s="37" customFormat="1" ht="140">
       <c r="A24" s="66" t="s">
         <v>72</v>
       </c>
@@ -9622,21 +9681,22 @@
       <c r="V24" s="66" t="s">
         <v>1142</v>
       </c>
-      <c r="W24" s="105" t="s">
+      <c r="W24" s="66"/>
+      <c r="X24" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="X24" s="105" t="s">
+      <c r="Y24" s="105" t="s">
         <v>1672</v>
       </c>
-      <c r="Y24"/>
-      <c r="AK24" s="84"/>
+      <c r="Z24"/>
       <c r="AL24" s="84"/>
       <c r="AM24" s="84"/>
       <c r="AN24" s="84"/>
       <c r="AO24" s="84"/>
       <c r="AP24" s="84"/>
-    </row>
-    <row r="25" spans="1:42" s="37" customFormat="1" ht="409">
+      <c r="AQ24" s="84"/>
+    </row>
+    <row r="25" spans="1:43" s="37" customFormat="1" ht="409">
       <c r="A25" s="66" t="s">
         <v>72</v>
       </c>
@@ -9679,19 +9739,20 @@
       <c r="V25" s="66" t="s">
         <v>1781</v>
       </c>
-      <c r="W25" s="37" t="s">
+      <c r="W25" s="66"/>
+      <c r="X25" s="37" t="s">
         <v>1745</v>
       </c>
-      <c r="X25"/>
       <c r="Y25"/>
-      <c r="AK25" s="84"/>
+      <c r="Z25"/>
       <c r="AL25" s="84"/>
       <c r="AM25" s="84"/>
       <c r="AN25" s="84"/>
       <c r="AO25" s="84"/>
       <c r="AP25" s="84"/>
-    </row>
-    <row r="26" spans="1:42" s="37" customFormat="1" ht="168">
+      <c r="AQ25" s="84"/>
+    </row>
+    <row r="26" spans="1:43" s="37" customFormat="1" ht="168">
       <c r="A26" s="66" t="s">
         <v>20</v>
       </c>
@@ -9734,19 +9795,20 @@
       <c r="V26" s="66" t="s">
         <v>1142</v>
       </c>
-      <c r="W26" s="105" t="s">
+      <c r="W26" s="66"/>
+      <c r="X26" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="X26"/>
       <c r="Y26"/>
-      <c r="AK26" s="84"/>
+      <c r="Z26"/>
       <c r="AL26" s="84"/>
       <c r="AM26" s="84"/>
       <c r="AN26" s="84"/>
       <c r="AO26" s="84"/>
       <c r="AP26" s="84"/>
-    </row>
-    <row r="27" spans="1:42" s="37" customFormat="1" ht="28">
+      <c r="AQ26" s="84"/>
+    </row>
+    <row r="27" spans="1:43" s="37" customFormat="1" ht="28">
       <c r="A27" s="66" t="s">
         <v>28</v>
       </c>
@@ -9783,17 +9845,18 @@
       <c r="V27" s="66" t="s">
         <v>1781</v>
       </c>
-      <c r="W27"/>
+      <c r="W27" s="66"/>
       <c r="X27"/>
       <c r="Y27"/>
-      <c r="AK27" s="84"/>
+      <c r="Z27"/>
       <c r="AL27" s="84"/>
       <c r="AM27" s="84"/>
       <c r="AN27" s="84"/>
       <c r="AO27" s="84"/>
       <c r="AP27" s="84"/>
-    </row>
-    <row r="28" spans="1:42" s="37" customFormat="1" ht="42">
+      <c r="AQ27" s="84"/>
+    </row>
+    <row r="28" spans="1:43" s="37" customFormat="1" ht="42">
       <c r="A28" s="66" t="s">
         <v>96</v>
       </c>
@@ -9834,19 +9897,20 @@
       <c r="V28" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W28" s="105" t="s">
+      <c r="W28" s="66"/>
+      <c r="X28" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="X28"/>
       <c r="Y28"/>
-      <c r="AK28" s="84"/>
+      <c r="Z28"/>
       <c r="AL28" s="84"/>
       <c r="AM28" s="84"/>
       <c r="AN28" s="84"/>
       <c r="AO28" s="84"/>
       <c r="AP28" s="84"/>
-    </row>
-    <row r="29" spans="1:42" s="37" customFormat="1" ht="28">
+      <c r="AQ28" s="84"/>
+    </row>
+    <row r="29" spans="1:43" s="37" customFormat="1" ht="28">
       <c r="A29" s="66" t="s">
         <v>101</v>
       </c>
@@ -9881,19 +9945,20 @@
         <v>104</v>
       </c>
       <c r="V29" s="66"/>
-      <c r="W29" s="105" t="s">
+      <c r="W29" s="66"/>
+      <c r="X29" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="X29"/>
       <c r="Y29"/>
-      <c r="AK29" s="84"/>
+      <c r="Z29"/>
       <c r="AL29" s="84"/>
       <c r="AM29" s="84"/>
       <c r="AN29" s="84"/>
       <c r="AO29" s="84"/>
       <c r="AP29" s="84"/>
-    </row>
-    <row r="30" spans="1:42" s="37" customFormat="1" ht="28">
+      <c r="AQ29" s="84"/>
+    </row>
+    <row r="30" spans="1:43" s="37" customFormat="1" ht="28">
       <c r="A30" s="66" t="s">
         <v>39</v>
       </c>
@@ -9922,17 +9987,18 @@
       <c r="T30" s="66"/>
       <c r="U30" s="65"/>
       <c r="V30" s="66"/>
-      <c r="W30"/>
+      <c r="W30" s="62"/>
       <c r="X30"/>
       <c r="Y30"/>
-      <c r="AK30" s="84"/>
+      <c r="Z30"/>
       <c r="AL30" s="84"/>
       <c r="AM30" s="84"/>
       <c r="AN30" s="84"/>
       <c r="AO30" s="84"/>
       <c r="AP30" s="84"/>
-    </row>
-    <row r="31" spans="1:42" s="37" customFormat="1" ht="56">
+      <c r="AQ30" s="84"/>
+    </row>
+    <row r="31" spans="1:43" s="37" customFormat="1" ht="56">
       <c r="A31" s="66" t="s">
         <v>17</v>
       </c>
@@ -9963,17 +10029,18 @@
       <c r="T31" s="66"/>
       <c r="U31" s="65"/>
       <c r="V31" s="66"/>
-      <c r="W31"/>
+      <c r="W31" s="62"/>
       <c r="X31"/>
       <c r="Y31"/>
-      <c r="AK31" s="84"/>
+      <c r="Z31"/>
       <c r="AL31" s="84"/>
       <c r="AM31" s="84"/>
       <c r="AN31" s="84"/>
       <c r="AO31" s="84"/>
       <c r="AP31" s="84"/>
-    </row>
-    <row r="32" spans="1:42" s="37" customFormat="1" ht="238">
+      <c r="AQ31" s="84"/>
+    </row>
+    <row r="32" spans="1:43" s="37" customFormat="1" ht="238">
       <c r="A32" s="66" t="s">
         <v>72</v>
       </c>
@@ -10014,21 +10081,22 @@
         <v>110</v>
       </c>
       <c r="V32" s="66"/>
-      <c r="W32" s="105" t="s">
+      <c r="W32" s="66"/>
+      <c r="X32" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="X32" s="105" t="s">
+      <c r="Y32" s="105" t="s">
         <v>1673</v>
       </c>
-      <c r="Y32"/>
-      <c r="AK32" s="84"/>
+      <c r="Z32"/>
       <c r="AL32" s="84"/>
       <c r="AM32" s="84"/>
       <c r="AN32" s="84"/>
       <c r="AO32" s="84"/>
       <c r="AP32" s="84"/>
-    </row>
-    <row r="33" spans="1:42" s="37" customFormat="1" ht="70">
+      <c r="AQ32" s="84"/>
+    </row>
+    <row r="33" spans="1:43" s="37" customFormat="1" ht="70">
       <c r="A33" s="66" t="s">
         <v>101</v>
       </c>
@@ -10072,21 +10140,22 @@
       <c r="V33" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W33" s="105" t="s">
+      <c r="W33" s="62"/>
+      <c r="X33" s="105" t="s">
         <v>1674</v>
       </c>
-      <c r="X33" s="105" t="s">
+      <c r="Y33" s="105" t="s">
         <v>1675</v>
       </c>
-      <c r="Y33"/>
-      <c r="AK33" s="84"/>
+      <c r="Z33"/>
       <c r="AL33" s="84"/>
       <c r="AM33" s="84"/>
       <c r="AN33" s="84"/>
       <c r="AO33" s="84"/>
       <c r="AP33" s="84"/>
-    </row>
-    <row r="34" spans="1:42" s="37" customFormat="1" ht="168">
+      <c r="AQ33" s="84"/>
+    </row>
+    <row r="34" spans="1:43" s="37" customFormat="1" ht="168">
       <c r="A34" s="66" t="s">
         <v>24</v>
       </c>
@@ -10132,21 +10201,22 @@
       <c r="V34" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W34" s="105" t="s">
+      <c r="W34" s="62"/>
+      <c r="X34" s="105" t="s">
         <v>1676</v>
       </c>
-      <c r="X34"/>
-      <c r="Y34" s="105" t="s">
+      <c r="Y34"/>
+      <c r="Z34" s="105" t="s">
         <v>1677</v>
       </c>
-      <c r="AK34" s="84"/>
       <c r="AL34" s="84"/>
       <c r="AM34" s="84"/>
       <c r="AN34" s="84"/>
       <c r="AO34" s="84"/>
       <c r="AP34" s="84"/>
-    </row>
-    <row r="35" spans="1:42" s="26" customFormat="1" ht="196">
+      <c r="AQ34" s="84"/>
+    </row>
+    <row r="35" spans="1:43" s="26" customFormat="1" ht="196">
       <c r="A35" s="71" t="s">
         <v>72</v>
       </c>
@@ -10191,21 +10261,22 @@
       <c r="V35" s="71" t="s">
         <v>1143</v>
       </c>
-      <c r="W35" s="105" t="s">
+      <c r="W35" s="62"/>
+      <c r="X35" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="X35" s="105" t="s">
+      <c r="Y35" s="105" t="s">
         <v>1678</v>
       </c>
-      <c r="Y35"/>
-      <c r="AK35" s="85"/>
+      <c r="Z35"/>
       <c r="AL35" s="85"/>
       <c r="AM35" s="85"/>
       <c r="AN35" s="85"/>
       <c r="AO35" s="85"/>
       <c r="AP35" s="85"/>
-    </row>
-    <row r="36" spans="1:42" ht="28">
+      <c r="AQ35" s="85"/>
+    </row>
+    <row r="36" spans="1:43" ht="28">
       <c r="A36" s="62" t="s">
         <v>119</v>
       </c>
@@ -10246,17 +10317,18 @@
       <c r="V36" s="64" t="s">
         <v>1143</v>
       </c>
-      <c r="W36" s="105" t="s">
+      <c r="W36" s="62"/>
+      <c r="X36" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="AK36" s="83"/>
       <c r="AL36" s="83"/>
       <c r="AM36" s="83"/>
       <c r="AN36" s="83"/>
       <c r="AO36" s="83"/>
       <c r="AP36" s="83"/>
-    </row>
-    <row r="37" spans="1:42">
+      <c r="AQ36" s="83"/>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="62" t="s">
         <v>28</v>
       </c>
@@ -10287,14 +10359,15 @@
       <c r="T37" s="62"/>
       <c r="U37" s="63"/>
       <c r="V37" s="62"/>
-      <c r="AK37" s="83"/>
+      <c r="W37" s="71"/>
       <c r="AL37" s="83"/>
       <c r="AM37" s="83"/>
       <c r="AN37" s="83"/>
       <c r="AO37" s="83"/>
       <c r="AP37" s="83"/>
-    </row>
-    <row r="38" spans="1:42" ht="56">
+      <c r="AQ37" s="83"/>
+    </row>
+    <row r="38" spans="1:43" ht="56">
       <c r="A38" s="62" t="s">
         <v>24</v>
       </c>
@@ -10339,20 +10412,21 @@
       <c r="V38" s="62" t="s">
         <v>1169</v>
       </c>
-      <c r="W38" s="105" t="s">
+      <c r="W38" s="62"/>
+      <c r="X38" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="X38" s="105" t="s">
+      <c r="Y38" s="105" t="s">
         <v>1679</v>
       </c>
-      <c r="AK38" s="83"/>
       <c r="AL38" s="83"/>
       <c r="AM38" s="83"/>
       <c r="AN38" s="83"/>
       <c r="AO38" s="83"/>
       <c r="AP38" s="83"/>
-    </row>
-    <row r="39" spans="1:42" s="2" customFormat="1" ht="28">
+      <c r="AQ38" s="83"/>
+    </row>
+    <row r="39" spans="1:43" s="2" customFormat="1" ht="28">
       <c r="A39" s="62" t="s">
         <v>17</v>
       </c>
@@ -10383,17 +10457,18 @@
       <c r="T39" s="66"/>
       <c r="U39" s="65"/>
       <c r="V39" s="66"/>
-      <c r="W39"/>
+      <c r="W39" s="66"/>
       <c r="X39"/>
       <c r="Y39"/>
-      <c r="AK39" s="3"/>
+      <c r="Z39"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
-    </row>
-    <row r="40" spans="1:42" ht="42">
+      <c r="AQ39" s="3"/>
+    </row>
+    <row r="40" spans="1:43" ht="42">
       <c r="A40" s="62" t="s">
         <v>974</v>
       </c>
@@ -10430,17 +10505,18 @@
       <c r="V40" s="62" t="s">
         <v>1144</v>
       </c>
-      <c r="W40" s="105" t="s">
+      <c r="W40" s="66"/>
+      <c r="X40" s="105" t="s">
         <v>1680</v>
       </c>
-      <c r="AK40" s="83"/>
       <c r="AL40" s="83"/>
       <c r="AM40" s="83"/>
       <c r="AN40" s="83"/>
       <c r="AO40" s="83"/>
       <c r="AP40" s="83"/>
-    </row>
-    <row r="41" spans="1:42">
+      <c r="AQ40" s="83"/>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="62" t="s">
         <v>39</v>
       </c>
@@ -10469,14 +10545,15 @@
       <c r="T41" s="82"/>
       <c r="U41" s="63"/>
       <c r="V41" s="82"/>
-      <c r="AK41" s="83"/>
+      <c r="W41" s="121"/>
       <c r="AL41" s="83"/>
       <c r="AM41" s="83"/>
       <c r="AN41" s="83"/>
       <c r="AO41" s="83"/>
       <c r="AP41" s="83"/>
-    </row>
-    <row r="42" spans="1:42">
+      <c r="AQ41" s="83"/>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="62" t="s">
         <v>28</v>
       </c>
@@ -10507,14 +10584,15 @@
       <c r="T42" s="88"/>
       <c r="U42" s="63"/>
       <c r="V42" s="88"/>
-      <c r="AK42" s="83"/>
+      <c r="W42" s="121"/>
       <c r="AL42" s="83"/>
       <c r="AM42" s="83"/>
       <c r="AN42" s="83"/>
       <c r="AO42" s="83"/>
       <c r="AP42" s="83"/>
-    </row>
-    <row r="43" spans="1:42" ht="70">
+      <c r="AQ42" s="83"/>
+    </row>
+    <row r="43" spans="1:43" ht="70">
       <c r="A43" s="62" t="s">
         <v>131</v>
       </c>
@@ -10555,17 +10633,18 @@
       <c r="V43" s="62" t="s">
         <v>1169</v>
       </c>
-      <c r="W43" s="105" t="s">
+      <c r="W43" s="66"/>
+      <c r="X43" s="105" t="s">
         <v>1681</v>
       </c>
-      <c r="AK43" s="83"/>
       <c r="AL43" s="83"/>
       <c r="AM43" s="83"/>
       <c r="AN43" s="83"/>
       <c r="AO43" s="83"/>
       <c r="AP43" s="83"/>
-    </row>
-    <row r="44" spans="1:42" ht="28">
+      <c r="AQ43" s="83"/>
+    </row>
+    <row r="44" spans="1:43" ht="28">
       <c r="A44" s="62" t="s">
         <v>17</v>
       </c>
@@ -10596,14 +10675,15 @@
       <c r="T44" s="62"/>
       <c r="U44" s="63"/>
       <c r="V44" s="62"/>
-      <c r="AK44" s="83"/>
+      <c r="W44" s="121"/>
       <c r="AL44" s="83"/>
       <c r="AM44" s="83"/>
       <c r="AN44" s="83"/>
       <c r="AO44" s="83"/>
       <c r="AP44" s="83"/>
-    </row>
-    <row r="45" spans="1:42" s="3" customFormat="1" ht="56">
+      <c r="AQ44" s="83"/>
+    </row>
+    <row r="45" spans="1:43" s="3" customFormat="1" ht="56">
       <c r="A45" s="66" t="s">
         <v>17</v>
       </c>
@@ -10634,10 +10714,10 @@
       <c r="T45" s="66"/>
       <c r="U45" s="65"/>
       <c r="V45" s="66"/>
-      <c r="W45"/>
+      <c r="W45" s="121"/>
       <c r="X45"/>
       <c r="Y45"/>
-      <c r="Z45" s="2"/>
+      <c r="Z45"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
@@ -10648,8 +10728,9 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-    </row>
-    <row r="46" spans="1:42" ht="42">
+      <c r="AK45" s="2"/>
+    </row>
+    <row r="46" spans="1:43" ht="42">
       <c r="A46" s="62" t="s">
         <v>138</v>
       </c>
@@ -10690,17 +10771,18 @@
       <c r="V46" s="62" t="s">
         <v>1170</v>
       </c>
-      <c r="W46" s="105" t="s">
+      <c r="W46" s="121"/>
+      <c r="X46" s="105" t="s">
         <v>1682</v>
       </c>
-      <c r="AK46" s="83"/>
       <c r="AL46" s="83"/>
       <c r="AM46" s="83"/>
       <c r="AN46" s="83"/>
       <c r="AO46" s="83"/>
       <c r="AP46" s="83"/>
-    </row>
-    <row r="47" spans="1:42" ht="56">
+      <c r="AQ46" s="83"/>
+    </row>
+    <row r="47" spans="1:43" ht="56">
       <c r="A47" s="62" t="s">
         <v>60</v>
       </c>
@@ -10749,23 +10831,24 @@
       <c r="V47" s="62" t="s">
         <v>1170</v>
       </c>
-      <c r="W47" s="105" t="s">
+      <c r="W47" s="66"/>
+      <c r="X47" s="105" t="s">
         <v>1683</v>
       </c>
-      <c r="X47" s="105" t="s">
+      <c r="Y47" s="105" t="s">
         <v>1684</v>
       </c>
-      <c r="Y47" s="105" t="s">
+      <c r="Z47" s="105" t="s">
         <v>1685</v>
       </c>
-      <c r="AK47" s="83"/>
       <c r="AL47" s="83"/>
       <c r="AM47" s="83"/>
       <c r="AN47" s="83"/>
       <c r="AO47" s="83"/>
       <c r="AP47" s="83"/>
-    </row>
-    <row r="48" spans="1:42" s="2" customFormat="1">
+      <c r="AQ47" s="83"/>
+    </row>
+    <row r="48" spans="1:43" s="2" customFormat="1">
       <c r="A48" s="62" t="s">
         <v>39</v>
       </c>
@@ -10794,17 +10877,18 @@
       <c r="T48" s="66"/>
       <c r="U48" s="65"/>
       <c r="V48" s="66"/>
-      <c r="W48"/>
+      <c r="W48" s="121"/>
       <c r="X48"/>
       <c r="Y48"/>
-      <c r="AK48" s="3"/>
+      <c r="Z48"/>
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
-    </row>
-    <row r="49" spans="1:42" s="2" customFormat="1">
+      <c r="AQ48" s="3"/>
+    </row>
+    <row r="49" spans="1:43" s="2" customFormat="1">
       <c r="A49" s="62" t="s">
         <v>28</v>
       </c>
@@ -10835,17 +10919,18 @@
       <c r="T49" s="66"/>
       <c r="U49" s="65"/>
       <c r="V49" s="66"/>
-      <c r="W49"/>
+      <c r="W49" s="66"/>
       <c r="X49"/>
       <c r="Y49"/>
-      <c r="AK49" s="3"/>
+      <c r="Z49"/>
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
-    </row>
-    <row r="50" spans="1:42" ht="168">
+      <c r="AQ49" s="3"/>
+    </row>
+    <row r="50" spans="1:43" ht="168">
       <c r="A50" s="62" t="s">
         <v>146</v>
       </c>
@@ -10890,20 +10975,21 @@
       <c r="V50" s="62" t="s">
         <v>1146</v>
       </c>
-      <c r="W50" s="105" t="s">
+      <c r="W50" s="120"/>
+      <c r="X50" s="105" t="s">
         <v>1686</v>
       </c>
-      <c r="X50" s="105" t="s">
+      <c r="Y50" s="105" t="s">
         <v>1687</v>
       </c>
-      <c r="AK50" s="83"/>
       <c r="AL50" s="83"/>
       <c r="AM50" s="83"/>
       <c r="AN50" s="83"/>
       <c r="AO50" s="83"/>
       <c r="AP50" s="83"/>
-    </row>
-    <row r="51" spans="1:42" ht="42">
+      <c r="AQ50" s="83"/>
+    </row>
+    <row r="51" spans="1:43" ht="42">
       <c r="A51" s="62" t="s">
         <v>151</v>
       </c>
@@ -10944,17 +11030,18 @@
       <c r="V51" s="62" t="s">
         <v>1170</v>
       </c>
-      <c r="W51" s="105" t="s">
+      <c r="W51" s="120"/>
+      <c r="X51" s="105" t="s">
         <v>1688</v>
       </c>
-      <c r="AK51" s="83"/>
       <c r="AL51" s="83"/>
       <c r="AM51" s="83"/>
       <c r="AN51" s="83"/>
       <c r="AO51" s="83"/>
       <c r="AP51" s="83"/>
-    </row>
-    <row r="52" spans="1:42" ht="42">
+      <c r="AQ51" s="83"/>
+    </row>
+    <row r="52" spans="1:43" ht="42">
       <c r="A52" s="62" t="s">
         <v>151</v>
       </c>
@@ -10995,17 +11082,18 @@
       <c r="V52" s="62" t="s">
         <v>1170</v>
       </c>
-      <c r="W52" s="105" t="s">
+      <c r="W52" s="120"/>
+      <c r="X52" s="105" t="s">
         <v>1689</v>
       </c>
-      <c r="AK52" s="83"/>
       <c r="AL52" s="83"/>
       <c r="AM52" s="83"/>
       <c r="AN52" s="83"/>
       <c r="AO52" s="83"/>
       <c r="AP52" s="83"/>
-    </row>
-    <row r="53" spans="1:42">
+      <c r="AQ52" s="83"/>
+    </row>
+    <row r="53" spans="1:43">
       <c r="A53" s="62" t="s">
         <v>39</v>
       </c>
@@ -11034,14 +11122,15 @@
       <c r="T53" s="62"/>
       <c r="U53" s="63"/>
       <c r="V53" s="62"/>
-      <c r="AK53" s="83"/>
+      <c r="W53" s="62"/>
       <c r="AL53" s="83"/>
       <c r="AM53" s="83"/>
       <c r="AN53" s="83"/>
       <c r="AO53" s="83"/>
       <c r="AP53" s="83"/>
-    </row>
-    <row r="54" spans="1:42" s="2" customFormat="1" ht="238">
+      <c r="AQ53" s="83"/>
+    </row>
+    <row r="54" spans="1:43" s="2" customFormat="1" ht="238">
       <c r="A54" s="62" t="s">
         <v>72</v>
       </c>
@@ -11078,19 +11167,20 @@
         <v>159</v>
       </c>
       <c r="V54" s="66"/>
-      <c r="W54" s="105" t="s">
+      <c r="W54" s="62"/>
+      <c r="X54" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="X54"/>
       <c r="Y54"/>
-      <c r="AK54" s="3"/>
+      <c r="Z54"/>
       <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
-    </row>
-    <row r="55" spans="1:42" s="40" customFormat="1" ht="42">
+      <c r="AQ54" s="3"/>
+    </row>
+    <row r="55" spans="1:43" s="40" customFormat="1" ht="42">
       <c r="A55" s="66" t="s">
         <v>1237</v>
       </c>
@@ -11133,12 +11223,12 @@
       <c r="V55" s="66" t="s">
         <v>1147</v>
       </c>
-      <c r="W55" s="105" t="s">
+      <c r="W55" s="62"/>
+      <c r="X55" s="105" t="s">
         <v>1690</v>
       </c>
-      <c r="X55"/>
       <c r="Y55"/>
-      <c r="Z55" s="37"/>
+      <c r="Z55"/>
       <c r="AA55" s="37"/>
       <c r="AB55" s="37"/>
       <c r="AC55" s="37"/>
@@ -11149,14 +11239,15 @@
       <c r="AH55" s="37"/>
       <c r="AI55" s="37"/>
       <c r="AJ55" s="37"/>
-      <c r="AK55" s="84"/>
+      <c r="AK55" s="37"/>
       <c r="AL55" s="84"/>
       <c r="AM55" s="84"/>
       <c r="AN55" s="84"/>
       <c r="AO55" s="84"/>
       <c r="AP55" s="84"/>
-    </row>
-    <row r="56" spans="1:42" s="40" customFormat="1" ht="42">
+      <c r="AQ55" s="84"/>
+    </row>
+    <row r="56" spans="1:43" s="40" customFormat="1" ht="42">
       <c r="A56" s="66" t="s">
         <v>1238</v>
       </c>
@@ -11199,12 +11290,12 @@
       <c r="V56" s="66" t="s">
         <v>1147</v>
       </c>
-      <c r="W56" s="105" t="s">
+      <c r="W56" s="62"/>
+      <c r="X56" s="105" t="s">
         <v>1691</v>
       </c>
-      <c r="X56"/>
       <c r="Y56"/>
-      <c r="Z56" s="37"/>
+      <c r="Z56"/>
       <c r="AA56" s="37"/>
       <c r="AB56" s="37"/>
       <c r="AC56" s="37"/>
@@ -11215,14 +11306,15 @@
       <c r="AH56" s="37"/>
       <c r="AI56" s="37"/>
       <c r="AJ56" s="37"/>
-      <c r="AK56" s="84"/>
+      <c r="AK56" s="37"/>
       <c r="AL56" s="84"/>
       <c r="AM56" s="84"/>
       <c r="AN56" s="84"/>
       <c r="AO56" s="84"/>
       <c r="AP56" s="84"/>
-    </row>
-    <row r="57" spans="1:42" ht="126">
+      <c r="AQ56" s="84"/>
+    </row>
+    <row r="57" spans="1:43" ht="126">
       <c r="A57" s="62" t="s">
         <v>17</v>
       </c>
@@ -11253,14 +11345,15 @@
       <c r="T57" s="62"/>
       <c r="U57" s="63"/>
       <c r="V57" s="62"/>
-      <c r="AK57" s="83"/>
+      <c r="W57" s="62"/>
       <c r="AL57" s="83"/>
       <c r="AM57" s="83"/>
       <c r="AN57" s="83"/>
       <c r="AO57" s="83"/>
       <c r="AP57" s="83"/>
-    </row>
-    <row r="58" spans="1:42" ht="70">
+      <c r="AQ57" s="83"/>
+    </row>
+    <row r="58" spans="1:43" ht="70">
       <c r="A58" s="62" t="s">
         <v>72</v>
       </c>
@@ -11297,17 +11390,18 @@
         <v>170</v>
       </c>
       <c r="V58" s="62"/>
-      <c r="W58" s="105" t="s">
+      <c r="W58" s="120"/>
+      <c r="X58" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="AK58" s="83"/>
       <c r="AL58" s="83"/>
       <c r="AM58" s="83"/>
       <c r="AN58" s="83"/>
       <c r="AO58" s="83"/>
       <c r="AP58" s="83"/>
-    </row>
-    <row r="59" spans="1:42" ht="70">
+      <c r="AQ58" s="83"/>
+    </row>
+    <row r="59" spans="1:43" ht="70">
       <c r="A59" s="62" t="s">
         <v>72</v>
       </c>
@@ -11344,17 +11438,18 @@
         <v>174</v>
       </c>
       <c r="V59" s="62"/>
-      <c r="W59" s="105" t="s">
+      <c r="W59" s="120"/>
+      <c r="X59" s="105" t="s">
         <v>174</v>
       </c>
-      <c r="AK59" s="83"/>
       <c r="AL59" s="83"/>
       <c r="AM59" s="83"/>
       <c r="AN59" s="83"/>
       <c r="AO59" s="83"/>
       <c r="AP59" s="83"/>
-    </row>
-    <row r="60" spans="1:42" ht="126">
+      <c r="AQ59" s="83"/>
+    </row>
+    <row r="60" spans="1:43" ht="126">
       <c r="A60" s="62" t="s">
         <v>20</v>
       </c>
@@ -11395,17 +11490,18 @@
       <c r="V60" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="W60" s="105" t="s">
+      <c r="W60" s="71"/>
+      <c r="X60" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="AK60" s="83"/>
       <c r="AL60" s="83"/>
       <c r="AM60" s="83"/>
       <c r="AN60" s="83"/>
       <c r="AO60" s="83"/>
       <c r="AP60" s="83"/>
-    </row>
-    <row r="61" spans="1:42" ht="98">
+      <c r="AQ60" s="83"/>
+    </row>
+    <row r="61" spans="1:43" ht="98">
       <c r="A61" s="62" t="s">
         <v>72</v>
       </c>
@@ -11440,17 +11536,18 @@
         <v>181</v>
       </c>
       <c r="V61" s="62"/>
-      <c r="W61" s="105" t="s">
+      <c r="W61" s="62"/>
+      <c r="X61" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="AK61" s="83"/>
       <c r="AL61" s="83"/>
       <c r="AM61" s="83"/>
       <c r="AN61" s="83"/>
       <c r="AO61" s="83"/>
       <c r="AP61" s="83"/>
-    </row>
-    <row r="62" spans="1:42" ht="98">
+      <c r="AQ61" s="83"/>
+    </row>
+    <row r="62" spans="1:43" ht="98">
       <c r="A62" s="62" t="s">
         <v>72</v>
       </c>
@@ -11485,17 +11582,18 @@
         <v>185</v>
       </c>
       <c r="V62" s="62"/>
-      <c r="W62" s="105" t="s">
+      <c r="W62" s="62"/>
+      <c r="X62" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="AK62" s="83"/>
       <c r="AL62" s="83"/>
       <c r="AM62" s="83"/>
       <c r="AN62" s="83"/>
       <c r="AO62" s="83"/>
       <c r="AP62" s="83"/>
-    </row>
-    <row r="63" spans="1:42" s="4" customFormat="1" ht="84">
+      <c r="AQ62" s="83"/>
+    </row>
+    <row r="63" spans="1:43" s="4" customFormat="1" ht="84">
       <c r="A63" s="62" t="s">
         <v>186</v>
       </c>
@@ -11520,7 +11618,7 @@
       <c r="N63" s="62"/>
       <c r="O63" s="62"/>
       <c r="P63" s="99" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="Q63" s="62" t="s">
         <v>1779</v>
@@ -11530,10 +11628,10 @@
       <c r="T63" s="99"/>
       <c r="U63" s="65"/>
       <c r="V63" s="99"/>
-      <c r="W63"/>
+      <c r="W63" s="62"/>
       <c r="X63"/>
       <c r="Y63"/>
-      <c r="Z63" s="89"/>
+      <c r="Z63"/>
       <c r="AA63" s="89"/>
       <c r="AB63" s="89"/>
       <c r="AC63" s="89"/>
@@ -11544,8 +11642,9 @@
       <c r="AH63" s="89"/>
       <c r="AI63" s="89"/>
       <c r="AJ63" s="89"/>
-    </row>
-    <row r="64" spans="1:42" s="4" customFormat="1">
+      <c r="AK63" s="89"/>
+    </row>
+    <row r="64" spans="1:43" s="4" customFormat="1">
       <c r="A64" s="62" t="s">
         <v>186</v>
       </c>
@@ -11580,10 +11679,10 @@
       <c r="T64" s="66"/>
       <c r="U64" s="63"/>
       <c r="V64" s="66"/>
-      <c r="W64"/>
+      <c r="W64" s="62"/>
       <c r="X64"/>
       <c r="Y64"/>
-      <c r="Z64" s="89"/>
+      <c r="Z64"/>
       <c r="AA64" s="89"/>
       <c r="AB64" s="89"/>
       <c r="AC64" s="89"/>
@@ -11594,8 +11693,9 @@
       <c r="AH64" s="89"/>
       <c r="AI64" s="89"/>
       <c r="AJ64" s="89"/>
-    </row>
-    <row r="65" spans="1:42" s="4" customFormat="1" ht="28">
+      <c r="AK64" s="89"/>
+    </row>
+    <row r="65" spans="1:43" s="4" customFormat="1" ht="28">
       <c r="A65" s="62" t="s">
         <v>186</v>
       </c>
@@ -11630,10 +11730,10 @@
       <c r="T65" s="62"/>
       <c r="U65" s="63"/>
       <c r="V65" s="62"/>
-      <c r="W65"/>
+      <c r="W65" s="62"/>
       <c r="X65"/>
       <c r="Y65"/>
-      <c r="Z65" s="89"/>
+      <c r="Z65"/>
       <c r="AA65" s="89"/>
       <c r="AB65" s="89"/>
       <c r="AC65" s="89"/>
@@ -11644,8 +11744,9 @@
       <c r="AH65" s="89"/>
       <c r="AI65" s="89"/>
       <c r="AJ65" s="89"/>
-    </row>
-    <row r="66" spans="1:42" s="4" customFormat="1" ht="28">
+      <c r="AK65" s="89"/>
+    </row>
+    <row r="66" spans="1:43" s="4" customFormat="1" ht="28">
       <c r="A66" s="62" t="s">
         <v>186</v>
       </c>
@@ -11680,10 +11781,10 @@
       <c r="T66" s="62"/>
       <c r="U66" s="63"/>
       <c r="V66" s="62"/>
-      <c r="W66"/>
+      <c r="W66" s="120"/>
       <c r="X66"/>
       <c r="Y66"/>
-      <c r="Z66" s="89"/>
+      <c r="Z66"/>
       <c r="AA66" s="89"/>
       <c r="AB66" s="89"/>
       <c r="AC66" s="89"/>
@@ -11694,8 +11795,9 @@
       <c r="AH66" s="89"/>
       <c r="AI66" s="89"/>
       <c r="AJ66" s="89"/>
-    </row>
-    <row r="67" spans="1:42" s="4" customFormat="1" ht="28">
+      <c r="AK66" s="89"/>
+    </row>
+    <row r="67" spans="1:43" s="4" customFormat="1" ht="28">
       <c r="A67" s="62" t="s">
         <v>186</v>
       </c>
@@ -11730,10 +11832,10 @@
       <c r="T67" s="62"/>
       <c r="U67" s="63"/>
       <c r="V67" s="62"/>
-      <c r="W67"/>
+      <c r="W67" s="66"/>
       <c r="X67"/>
       <c r="Y67"/>
-      <c r="Z67" s="89"/>
+      <c r="Z67"/>
       <c r="AA67" s="89"/>
       <c r="AB67" s="89"/>
       <c r="AC67" s="89"/>
@@ -11744,8 +11846,9 @@
       <c r="AH67" s="89"/>
       <c r="AI67" s="89"/>
       <c r="AJ67" s="89"/>
-    </row>
-    <row r="68" spans="1:42" s="4" customFormat="1" ht="28">
+      <c r="AK67" s="89"/>
+    </row>
+    <row r="68" spans="1:43" s="4" customFormat="1" ht="28">
       <c r="A68" s="62" t="s">
         <v>186</v>
       </c>
@@ -11780,10 +11883,10 @@
       <c r="T68" s="62"/>
       <c r="U68" s="63"/>
       <c r="V68" s="62"/>
-      <c r="W68"/>
+      <c r="W68" s="66"/>
       <c r="X68"/>
       <c r="Y68"/>
-      <c r="Z68" s="89"/>
+      <c r="Z68"/>
       <c r="AA68" s="89"/>
       <c r="AB68" s="89"/>
       <c r="AC68" s="89"/>
@@ -11794,8 +11897,9 @@
       <c r="AH68" s="89"/>
       <c r="AI68" s="89"/>
       <c r="AJ68" s="89"/>
-    </row>
-    <row r="69" spans="1:42" s="4" customFormat="1" ht="28">
+      <c r="AK68" s="89"/>
+    </row>
+    <row r="69" spans="1:43" s="4" customFormat="1" ht="28">
       <c r="A69" s="62" t="s">
         <v>204</v>
       </c>
@@ -11830,10 +11934,10 @@
       <c r="T69" s="62"/>
       <c r="U69" s="63"/>
       <c r="V69" s="62"/>
-      <c r="W69"/>
+      <c r="W69" s="120"/>
       <c r="X69"/>
       <c r="Y69"/>
-      <c r="Z69" s="89"/>
+      <c r="Z69"/>
       <c r="AA69" s="89"/>
       <c r="AB69" s="89"/>
       <c r="AC69" s="89"/>
@@ -11844,8 +11948,9 @@
       <c r="AH69" s="89"/>
       <c r="AI69" s="89"/>
       <c r="AJ69" s="89"/>
-    </row>
-    <row r="70" spans="1:42" s="4" customFormat="1" ht="42">
+      <c r="AK69" s="89"/>
+    </row>
+    <row r="70" spans="1:43" s="4" customFormat="1" ht="42">
       <c r="A70" s="62" t="s">
         <v>204</v>
       </c>
@@ -11880,10 +11985,10 @@
       <c r="T70" s="62"/>
       <c r="U70" s="63"/>
       <c r="V70" s="62"/>
-      <c r="W70"/>
+      <c r="W70" s="62"/>
       <c r="X70"/>
       <c r="Y70"/>
-      <c r="Z70" s="89"/>
+      <c r="Z70"/>
       <c r="AA70" s="89"/>
       <c r="AB70" s="89"/>
       <c r="AC70" s="89"/>
@@ -11894,8 +11999,9 @@
       <c r="AH70" s="89"/>
       <c r="AI70" s="89"/>
       <c r="AJ70" s="89"/>
-    </row>
-    <row r="71" spans="1:42" s="4" customFormat="1" ht="98">
+      <c r="AK70" s="89"/>
+    </row>
+    <row r="71" spans="1:43" s="4" customFormat="1" ht="98">
       <c r="A71" s="62" t="s">
         <v>186</v>
       </c>
@@ -11930,10 +12036,10 @@
       <c r="T71" s="62"/>
       <c r="U71" s="63"/>
       <c r="V71" s="62"/>
-      <c r="W71"/>
+      <c r="W71" s="71"/>
       <c r="X71"/>
       <c r="Y71"/>
-      <c r="Z71" s="89"/>
+      <c r="Z71"/>
       <c r="AA71" s="89"/>
       <c r="AB71" s="89"/>
       <c r="AC71" s="89"/>
@@ -11944,8 +12050,9 @@
       <c r="AH71" s="89"/>
       <c r="AI71" s="89"/>
       <c r="AJ71" s="89"/>
-    </row>
-    <row r="72" spans="1:42" s="4" customFormat="1" ht="28">
+      <c r="AK71" s="89"/>
+    </row>
+    <row r="72" spans="1:43" s="4" customFormat="1" ht="28">
       <c r="A72" s="62" t="s">
         <v>214</v>
       </c>
@@ -11980,10 +12087,10 @@
       <c r="T72" s="62"/>
       <c r="U72" s="63"/>
       <c r="V72" s="62"/>
-      <c r="W72"/>
+      <c r="W72" s="66"/>
       <c r="X72"/>
       <c r="Y72"/>
-      <c r="Z72" s="89"/>
+      <c r="Z72"/>
       <c r="AA72" s="89"/>
       <c r="AB72" s="89"/>
       <c r="AC72" s="89"/>
@@ -11994,8 +12101,9 @@
       <c r="AH72" s="89"/>
       <c r="AI72" s="89"/>
       <c r="AJ72" s="89"/>
-    </row>
-    <row r="73" spans="1:42">
+      <c r="AK72" s="89"/>
+    </row>
+    <row r="73" spans="1:43">
       <c r="A73" s="62" t="s">
         <v>219</v>
       </c>
@@ -12024,14 +12132,15 @@
       <c r="T73" s="62"/>
       <c r="U73" s="63"/>
       <c r="V73" s="62"/>
-      <c r="AK73" s="83"/>
+      <c r="W73" s="66"/>
       <c r="AL73" s="83"/>
       <c r="AM73" s="83"/>
       <c r="AN73" s="83"/>
       <c r="AO73" s="83"/>
       <c r="AP73" s="83"/>
-    </row>
-    <row r="74" spans="1:42" ht="28">
+      <c r="AQ73" s="83"/>
+    </row>
+    <row r="74" spans="1:43" ht="28">
       <c r="A74" s="62" t="s">
         <v>17</v>
       </c>
@@ -12062,14 +12171,15 @@
       <c r="T74" s="62"/>
       <c r="U74" s="63"/>
       <c r="V74" s="62"/>
-      <c r="AK74" s="83"/>
+      <c r="W74" s="66"/>
       <c r="AL74" s="83"/>
       <c r="AM74" s="83"/>
       <c r="AN74" s="83"/>
       <c r="AO74" s="83"/>
       <c r="AP74" s="83"/>
-    </row>
-    <row r="75" spans="1:42" ht="28">
+      <c r="AQ74" s="83"/>
+    </row>
+    <row r="75" spans="1:43" ht="28">
       <c r="A75" s="62" t="s">
         <v>17</v>
       </c>
@@ -12100,14 +12210,15 @@
       <c r="T75" s="62"/>
       <c r="U75" s="63"/>
       <c r="V75" s="62"/>
-      <c r="AK75" s="83"/>
+      <c r="W75" s="66"/>
       <c r="AL75" s="83"/>
       <c r="AM75" s="83"/>
       <c r="AN75" s="83"/>
       <c r="AO75" s="83"/>
       <c r="AP75" s="83"/>
-    </row>
-    <row r="76" spans="1:42" s="3" customFormat="1" ht="28">
+      <c r="AQ75" s="83"/>
+    </row>
+    <row r="76" spans="1:43" s="3" customFormat="1" ht="28">
       <c r="A76" s="66" t="s">
         <v>17</v>
       </c>
@@ -12138,10 +12249,10 @@
       <c r="T76" s="66"/>
       <c r="U76" s="65"/>
       <c r="V76" s="66"/>
-      <c r="W76"/>
+      <c r="W76" s="66"/>
       <c r="X76"/>
       <c r="Y76"/>
-      <c r="Z76" s="2"/>
+      <c r="Z76"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
@@ -12152,8 +12263,9 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
       <c r="AJ76" s="2"/>
-    </row>
-    <row r="77" spans="1:42" s="3" customFormat="1" ht="240">
+      <c r="AK76" s="2"/>
+    </row>
+    <row r="77" spans="1:43" s="3" customFormat="1" ht="240">
       <c r="A77" s="66" t="s">
         <v>72</v>
       </c>
@@ -12190,12 +12302,12 @@
         <v>228</v>
       </c>
       <c r="V77" s="66"/>
-      <c r="W77" s="105" t="s">
+      <c r="W77" s="66"/>
+      <c r="X77" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="X77"/>
       <c r="Y77"/>
-      <c r="Z77" s="2"/>
+      <c r="Z77"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
@@ -12206,8 +12318,9 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
       <c r="AJ77" s="2"/>
-    </row>
-    <row r="78" spans="1:42" s="3" customFormat="1" ht="300">
+      <c r="AK77" s="2"/>
+    </row>
+    <row r="78" spans="1:43" s="3" customFormat="1" ht="300">
       <c r="A78" s="66" t="s">
         <v>72</v>
       </c>
@@ -12244,12 +12357,12 @@
         <v>1190</v>
       </c>
       <c r="V78" s="66"/>
-      <c r="W78" s="105" t="s">
+      <c r="W78" s="66"/>
+      <c r="X78" s="105" t="s">
         <v>1692</v>
       </c>
-      <c r="X78"/>
       <c r="Y78"/>
-      <c r="Z78" s="2"/>
+      <c r="Z78"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
@@ -12260,8 +12373,9 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
       <c r="AJ78" s="2"/>
-    </row>
-    <row r="79" spans="1:42" ht="28">
+      <c r="AK78" s="2"/>
+    </row>
+    <row r="79" spans="1:43" ht="28">
       <c r="A79" s="62" t="s">
         <v>17</v>
       </c>
@@ -12292,14 +12406,15 @@
       <c r="T79" s="62"/>
       <c r="U79" s="63"/>
       <c r="V79" s="62"/>
-      <c r="AK79" s="83"/>
+      <c r="W79" s="66"/>
       <c r="AL79" s="83"/>
       <c r="AM79" s="83"/>
       <c r="AN79" s="83"/>
       <c r="AO79" s="83"/>
       <c r="AP79" s="83"/>
-    </row>
-    <row r="80" spans="1:42" ht="252">
+      <c r="AQ79" s="83"/>
+    </row>
+    <row r="80" spans="1:43" ht="252">
       <c r="A80" s="62" t="s">
         <v>72</v>
       </c>
@@ -12336,17 +12451,18 @@
         <v>1581</v>
       </c>
       <c r="V80" s="62"/>
-      <c r="W80" s="107" t="s">
+      <c r="W80" s="66"/>
+      <c r="X80" s="107" t="s">
         <v>1767</v>
       </c>
-      <c r="AK80" s="83"/>
       <c r="AL80" s="83"/>
       <c r="AM80" s="83"/>
       <c r="AN80" s="83"/>
       <c r="AO80" s="83"/>
       <c r="AP80" s="83"/>
-    </row>
-    <row r="81" spans="1:42" ht="196">
+      <c r="AQ80" s="83"/>
+    </row>
+    <row r="81" spans="1:43" ht="196">
       <c r="A81" s="62" t="s">
         <v>20</v>
       </c>
@@ -12393,23 +12509,24 @@
       <c r="V81" s="62" t="s">
         <v>1148</v>
       </c>
-      <c r="W81" s="105" t="s">
+      <c r="W81" s="66"/>
+      <c r="X81" s="105" t="s">
         <v>1693</v>
       </c>
-      <c r="X81" s="105" t="s">
+      <c r="Y81" s="105" t="s">
         <v>1694</v>
       </c>
-      <c r="Y81" s="105" t="s">
+      <c r="Z81" s="105" t="s">
         <v>1695</v>
       </c>
-      <c r="AK81" s="83"/>
       <c r="AL81" s="83"/>
       <c r="AM81" s="83"/>
       <c r="AN81" s="83"/>
       <c r="AO81" s="83"/>
       <c r="AP81" s="83"/>
-    </row>
-    <row r="82" spans="1:42" s="26" customFormat="1" ht="126">
+      <c r="AQ81" s="83"/>
+    </row>
+    <row r="82" spans="1:43" s="26" customFormat="1" ht="126">
       <c r="A82" s="71" t="s">
         <v>72</v>
       </c>
@@ -12454,21 +12571,22 @@
       <c r="V82" s="71" t="s">
         <v>1143</v>
       </c>
-      <c r="W82" s="105" t="s">
+      <c r="W82" s="66"/>
+      <c r="X82" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="X82" s="105" t="s">
+      <c r="Y82" s="105" t="s">
         <v>1696</v>
       </c>
-      <c r="Y82"/>
-      <c r="AK82" s="85"/>
+      <c r="Z82"/>
       <c r="AL82" s="85"/>
       <c r="AM82" s="85"/>
       <c r="AN82" s="85"/>
       <c r="AO82" s="85"/>
       <c r="AP82" s="85"/>
-    </row>
-    <row r="83" spans="1:42" s="37" customFormat="1">
+      <c r="AQ82" s="85"/>
+    </row>
+    <row r="83" spans="1:43" s="37" customFormat="1">
       <c r="A83" s="66" t="s">
         <v>28</v>
       </c>
@@ -12505,17 +12623,18 @@
       <c r="V83" s="64" t="s">
         <v>1143</v>
       </c>
-      <c r="W83"/>
+      <c r="W83" s="66"/>
       <c r="X83"/>
       <c r="Y83"/>
-      <c r="AK83" s="84"/>
+      <c r="Z83"/>
       <c r="AL83" s="84"/>
       <c r="AM83" s="84"/>
       <c r="AN83" s="84"/>
       <c r="AO83" s="84"/>
       <c r="AP83" s="84"/>
-    </row>
-    <row r="84" spans="1:42" s="37" customFormat="1" ht="308">
+      <c r="AQ83" s="84"/>
+    </row>
+    <row r="84" spans="1:43" s="37" customFormat="1" ht="308">
       <c r="A84" s="66" t="s">
         <v>241</v>
       </c>
@@ -12562,23 +12681,24 @@
       <c r="V84" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W84" s="105" t="s">
+      <c r="W84" s="66"/>
+      <c r="X84" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="X84" s="105" t="s">
+      <c r="Y84" s="105" t="s">
         <v>1697</v>
       </c>
-      <c r="Y84" s="105" t="s">
+      <c r="Z84" s="105" t="s">
         <v>1698</v>
       </c>
-      <c r="AK84" s="84"/>
       <c r="AL84" s="84"/>
       <c r="AM84" s="84"/>
       <c r="AN84" s="84"/>
       <c r="AO84" s="84"/>
       <c r="AP84" s="84"/>
-    </row>
-    <row r="85" spans="1:42" s="37" customFormat="1" ht="56">
+      <c r="AQ84" s="84"/>
+    </row>
+    <row r="85" spans="1:43" s="37" customFormat="1" ht="56">
       <c r="A85" s="66" t="s">
         <v>101</v>
       </c>
@@ -12615,19 +12735,20 @@
         <v>247</v>
       </c>
       <c r="V85" s="66"/>
-      <c r="W85" s="105" t="s">
+      <c r="W85" s="66"/>
+      <c r="X85" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="X85"/>
       <c r="Y85"/>
-      <c r="AK85" s="84"/>
+      <c r="Z85"/>
       <c r="AL85" s="84"/>
       <c r="AM85" s="84"/>
       <c r="AN85" s="84"/>
       <c r="AO85" s="84"/>
       <c r="AP85" s="84"/>
-    </row>
-    <row r="86" spans="1:42" s="37" customFormat="1">
+      <c r="AQ85" s="84"/>
+    </row>
+    <row r="86" spans="1:43" s="37" customFormat="1">
       <c r="A86" s="66" t="s">
         <v>39</v>
       </c>
@@ -12656,17 +12777,18 @@
       <c r="T86" s="66"/>
       <c r="U86" s="65"/>
       <c r="V86" s="66"/>
-      <c r="W86"/>
+      <c r="W86" s="66"/>
       <c r="X86"/>
       <c r="Y86"/>
-      <c r="AK86" s="84"/>
+      <c r="Z86"/>
       <c r="AL86" s="84"/>
       <c r="AM86" s="84"/>
       <c r="AN86" s="84"/>
       <c r="AO86" s="84"/>
       <c r="AP86" s="84"/>
-    </row>
-    <row r="87" spans="1:42" ht="112">
+      <c r="AQ86" s="84"/>
+    </row>
+    <row r="87" spans="1:43" ht="112">
       <c r="A87" s="62" t="s">
         <v>151</v>
       </c>
@@ -12711,20 +12833,21 @@
       <c r="V87" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="W87" s="105" t="s">
+      <c r="W87" s="66"/>
+      <c r="X87" s="105" t="s">
         <v>1588</v>
       </c>
-      <c r="X87" s="105" t="s">
+      <c r="Y87" s="105" t="s">
         <v>1699</v>
       </c>
-      <c r="AK87" s="83"/>
       <c r="AL87" s="83"/>
       <c r="AM87" s="83"/>
       <c r="AN87" s="83"/>
       <c r="AO87" s="83"/>
       <c r="AP87" s="83"/>
-    </row>
-    <row r="88" spans="1:42" s="37" customFormat="1" ht="28">
+      <c r="AQ87" s="83"/>
+    </row>
+    <row r="88" spans="1:43" s="37" customFormat="1" ht="28">
       <c r="A88" s="66" t="s">
         <v>28</v>
       </c>
@@ -12761,17 +12884,18 @@
       <c r="V88" s="66" t="s">
         <v>1781</v>
       </c>
-      <c r="W88"/>
+      <c r="W88" s="66"/>
       <c r="X88"/>
       <c r="Y88"/>
-      <c r="AK88" s="84"/>
+      <c r="Z88"/>
       <c r="AL88" s="84"/>
       <c r="AM88" s="84"/>
       <c r="AN88" s="84"/>
       <c r="AO88" s="84"/>
       <c r="AP88" s="84"/>
-    </row>
-    <row r="89" spans="1:42" s="37" customFormat="1" ht="294">
+      <c r="AQ88" s="84"/>
+    </row>
+    <row r="89" spans="1:43" s="37" customFormat="1" ht="294">
       <c r="A89" s="66" t="s">
         <v>72</v>
       </c>
@@ -12812,21 +12936,22 @@
       <c r="V89" s="66" t="s">
         <v>1149</v>
       </c>
-      <c r="W89" s="107" t="s">
+      <c r="W89" s="66"/>
+      <c r="X89" s="107" t="s">
         <v>1700</v>
       </c>
-      <c r="X89" s="107" t="s">
+      <c r="Y89" s="107" t="s">
         <v>1783</v>
       </c>
-      <c r="Y89"/>
-      <c r="AK89" s="84"/>
+      <c r="Z89"/>
       <c r="AL89" s="84"/>
       <c r="AM89" s="84"/>
       <c r="AN89" s="84"/>
       <c r="AO89" s="84"/>
       <c r="AP89" s="84"/>
-    </row>
-    <row r="90" spans="1:42" s="36" customFormat="1" ht="28">
+      <c r="AQ89" s="84"/>
+    </row>
+    <row r="90" spans="1:43" s="36" customFormat="1" ht="28">
       <c r="A90" s="91" t="s">
         <v>60</v>
       </c>
@@ -12861,23 +12986,24 @@
       <c r="R90" s="66"/>
       <c r="U90" s="101"/>
       <c r="V90" s="91"/>
-      <c r="W90" s="105" t="s">
+      <c r="W90" s="66"/>
+      <c r="X90" s="105" t="s">
         <v>1701</v>
       </c>
-      <c r="X90" s="105"/>
-      <c r="Y90" s="105" t="s">
+      <c r="Y90" s="105"/>
+      <c r="Z90" s="105" t="s">
         <v>1702</v>
       </c>
-      <c r="AA90" s="91"/>
       <c r="AB90" s="91"/>
       <c r="AC90" s="91"/>
       <c r="AD90" s="91"/>
-      <c r="AF90" s="91"/>
+      <c r="AE90" s="91"/>
       <c r="AG90" s="91"/>
       <c r="AH90" s="91"/>
       <c r="AI90" s="91"/>
-    </row>
-    <row r="91" spans="1:42" s="36" customFormat="1" ht="28">
+      <c r="AJ90" s="91"/>
+    </row>
+    <row r="91" spans="1:43" s="36" customFormat="1" ht="28">
       <c r="A91" s="91" t="s">
         <v>60</v>
       </c>
@@ -12912,23 +13038,24 @@
       <c r="R91" s="66"/>
       <c r="U91" s="101"/>
       <c r="V91" s="91"/>
-      <c r="W91" s="105" t="s">
+      <c r="W91" s="66"/>
+      <c r="X91" s="105" t="s">
         <v>1703</v>
       </c>
-      <c r="X91" s="105"/>
-      <c r="Y91" s="105" t="s">
+      <c r="Y91" s="105"/>
+      <c r="Z91" s="105" t="s">
         <v>1704</v>
       </c>
-      <c r="AA91" s="91"/>
       <c r="AB91" s="91"/>
       <c r="AC91" s="91"/>
       <c r="AD91" s="91"/>
-      <c r="AF91" s="91"/>
+      <c r="AE91" s="91"/>
       <c r="AG91" s="91"/>
       <c r="AH91" s="91"/>
       <c r="AI91" s="91"/>
-    </row>
-    <row r="92" spans="1:42" s="36" customFormat="1" ht="28">
+      <c r="AJ91" s="91"/>
+    </row>
+    <row r="92" spans="1:43" s="36" customFormat="1" ht="28">
       <c r="A92" s="91" t="s">
         <v>60</v>
       </c>
@@ -12963,23 +13090,24 @@
       <c r="R92" s="66"/>
       <c r="U92" s="101"/>
       <c r="V92" s="91"/>
-      <c r="W92" s="105" t="s">
+      <c r="W92" s="66"/>
+      <c r="X92" s="105" t="s">
         <v>1705</v>
       </c>
-      <c r="X92" s="105"/>
-      <c r="Y92" s="105" t="s">
+      <c r="Y92" s="105"/>
+      <c r="Z92" s="105" t="s">
         <v>1706</v>
       </c>
-      <c r="AA92" s="91"/>
       <c r="AB92" s="91"/>
       <c r="AC92" s="91"/>
       <c r="AD92" s="91"/>
-      <c r="AF92" s="91"/>
+      <c r="AE92" s="91"/>
       <c r="AG92" s="91"/>
       <c r="AH92" s="91"/>
       <c r="AI92" s="91"/>
-    </row>
-    <row r="93" spans="1:42" s="36" customFormat="1" ht="28">
+      <c r="AJ92" s="91"/>
+    </row>
+    <row r="93" spans="1:43" s="36" customFormat="1" ht="28">
       <c r="A93" s="91" t="s">
         <v>60</v>
       </c>
@@ -13014,23 +13142,24 @@
       <c r="R93" s="66"/>
       <c r="U93" s="102"/>
       <c r="V93" s="91"/>
-      <c r="W93" s="105" t="s">
+      <c r="W93" s="66"/>
+      <c r="X93" s="105" t="s">
         <v>1707</v>
       </c>
-      <c r="X93" s="105"/>
-      <c r="Y93" s="105" t="s">
+      <c r="Y93" s="105"/>
+      <c r="Z93" s="105" t="s">
         <v>1708</v>
       </c>
-      <c r="AA93" s="91"/>
       <c r="AB93" s="91"/>
       <c r="AC93" s="91"/>
       <c r="AD93" s="91"/>
-      <c r="AF93" s="91"/>
+      <c r="AE93" s="91"/>
       <c r="AG93" s="91"/>
       <c r="AH93" s="91"/>
       <c r="AI93" s="91"/>
-    </row>
-    <row r="94" spans="1:42" s="36" customFormat="1" ht="28">
+      <c r="AJ93" s="91"/>
+    </row>
+    <row r="94" spans="1:43" s="36" customFormat="1" ht="28">
       <c r="A94" s="91" t="s">
         <v>60</v>
       </c>
@@ -13065,23 +13194,24 @@
       <c r="R94" s="66"/>
       <c r="U94" s="102"/>
       <c r="V94" s="91"/>
-      <c r="W94" s="105" t="s">
+      <c r="W94" s="66"/>
+      <c r="X94" s="105" t="s">
         <v>1709</v>
       </c>
-      <c r="X94" s="105"/>
-      <c r="Y94" s="105" t="s">
+      <c r="Y94" s="105"/>
+      <c r="Z94" s="105" t="s">
         <v>1710</v>
       </c>
-      <c r="AA94" s="91"/>
       <c r="AB94" s="91"/>
       <c r="AC94" s="91"/>
       <c r="AD94" s="91"/>
-      <c r="AF94" s="91"/>
+      <c r="AE94" s="91"/>
       <c r="AG94" s="91"/>
       <c r="AH94" s="91"/>
       <c r="AI94" s="91"/>
-    </row>
-    <row r="95" spans="1:42" s="36" customFormat="1" ht="28">
+      <c r="AJ94" s="91"/>
+    </row>
+    <row r="95" spans="1:43" s="36" customFormat="1" ht="28">
       <c r="A95" s="91" t="s">
         <v>60</v>
       </c>
@@ -13116,23 +13246,24 @@
       <c r="R95" s="66"/>
       <c r="U95" s="101"/>
       <c r="V95" s="91"/>
-      <c r="W95" s="105" t="s">
+      <c r="W95" s="66"/>
+      <c r="X95" s="105" t="s">
         <v>1711</v>
       </c>
-      <c r="X95" s="105"/>
-      <c r="Y95" s="105" t="s">
+      <c r="Y95" s="105"/>
+      <c r="Z95" s="105" t="s">
         <v>1666</v>
       </c>
-      <c r="AA95" s="91"/>
       <c r="AB95" s="91"/>
       <c r="AC95" s="91"/>
       <c r="AD95" s="91"/>
-      <c r="AF95" s="91"/>
+      <c r="AE95" s="91"/>
       <c r="AG95" s="91"/>
       <c r="AH95" s="91"/>
       <c r="AI95" s="91"/>
-    </row>
-    <row r="96" spans="1:42" s="36" customFormat="1" ht="28">
+      <c r="AJ95" s="91"/>
+    </row>
+    <row r="96" spans="1:43" s="36" customFormat="1" ht="28">
       <c r="A96" s="91" t="s">
         <v>60</v>
       </c>
@@ -13167,23 +13298,24 @@
       <c r="R96" s="66"/>
       <c r="U96" s="91"/>
       <c r="V96" s="91"/>
-      <c r="W96" s="105" t="s">
+      <c r="W96" s="66"/>
+      <c r="X96" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="X96" s="105"/>
-      <c r="Y96" s="105" t="s">
+      <c r="Y96" s="105"/>
+      <c r="Z96" s="105" t="s">
         <v>1666</v>
       </c>
-      <c r="AA96" s="91"/>
       <c r="AB96" s="91"/>
       <c r="AC96" s="91"/>
       <c r="AD96" s="91"/>
-      <c r="AF96" s="91"/>
+      <c r="AE96" s="91"/>
       <c r="AG96" s="91"/>
       <c r="AH96" s="91"/>
       <c r="AI96" s="91"/>
-    </row>
-    <row r="97" spans="1:42" s="37" customFormat="1" ht="28">
+      <c r="AJ96" s="91"/>
+    </row>
+    <row r="97" spans="1:43" s="37" customFormat="1" ht="28">
       <c r="A97" s="66" t="s">
         <v>39</v>
       </c>
@@ -13212,17 +13344,18 @@
       <c r="T97" s="66"/>
       <c r="U97" s="65"/>
       <c r="V97" s="66"/>
-      <c r="W97"/>
+      <c r="W97" s="66"/>
       <c r="X97"/>
       <c r="Y97"/>
-      <c r="AK97" s="84"/>
+      <c r="Z97"/>
       <c r="AL97" s="84"/>
       <c r="AM97" s="84"/>
       <c r="AN97" s="84"/>
       <c r="AO97" s="84"/>
       <c r="AP97" s="84"/>
-    </row>
-    <row r="98" spans="1:42" s="26" customFormat="1" ht="84">
+      <c r="AQ97" s="84"/>
+    </row>
+    <row r="98" spans="1:43" s="26" customFormat="1" ht="84">
       <c r="A98" s="71" t="s">
         <v>72</v>
       </c>
@@ -13265,21 +13398,22 @@
       <c r="V98" s="71" t="s">
         <v>1143</v>
       </c>
-      <c r="W98" s="105" t="s">
+      <c r="W98" s="66"/>
+      <c r="X98" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="X98" s="105" t="s">
+      <c r="Y98" s="105" t="s">
         <v>1712</v>
       </c>
-      <c r="Y98"/>
-      <c r="AK98" s="85"/>
+      <c r="Z98"/>
       <c r="AL98" s="85"/>
       <c r="AM98" s="85"/>
       <c r="AN98" s="85"/>
       <c r="AO98" s="85"/>
       <c r="AP98" s="85"/>
-    </row>
-    <row r="99" spans="1:42" s="37" customFormat="1" ht="42">
+      <c r="AQ98" s="85"/>
+    </row>
+    <row r="99" spans="1:43" s="37" customFormat="1" ht="42">
       <c r="A99" s="66" t="s">
         <v>280</v>
       </c>
@@ -13324,21 +13458,22 @@
       <c r="V99" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W99" s="105" t="s">
+      <c r="W99" s="66"/>
+      <c r="X99" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="X99" s="105" t="s">
+      <c r="Y99" s="105" t="s">
         <v>1713</v>
       </c>
-      <c r="Y99"/>
-      <c r="AK99" s="84"/>
+      <c r="Z99"/>
       <c r="AL99" s="84"/>
       <c r="AM99" s="84"/>
       <c r="AN99" s="84"/>
       <c r="AO99" s="84"/>
       <c r="AP99" s="84"/>
-    </row>
-    <row r="100" spans="1:42" s="37" customFormat="1" ht="42">
+      <c r="AQ99" s="84"/>
+    </row>
+    <row r="100" spans="1:43" s="37" customFormat="1" ht="42">
       <c r="A100" s="66" t="s">
         <v>285</v>
       </c>
@@ -13383,21 +13518,22 @@
       <c r="V100" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W100" s="105" t="s">
+      <c r="W100" s="66"/>
+      <c r="X100" s="105" t="s">
         <v>288</v>
       </c>
-      <c r="X100" s="105" t="s">
+      <c r="Y100" s="105" t="s">
         <v>1713</v>
       </c>
-      <c r="Y100"/>
-      <c r="AK100" s="84"/>
+      <c r="Z100"/>
       <c r="AL100" s="84"/>
       <c r="AM100" s="84"/>
       <c r="AN100" s="84"/>
       <c r="AO100" s="84"/>
       <c r="AP100" s="84"/>
-    </row>
-    <row r="101" spans="1:42" s="37" customFormat="1" ht="42">
+      <c r="AQ100" s="84"/>
+    </row>
+    <row r="101" spans="1:43" s="37" customFormat="1" ht="42">
       <c r="A101" s="66" t="s">
         <v>289</v>
       </c>
@@ -13442,21 +13578,22 @@
       <c r="V101" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W101" s="105" t="s">
+      <c r="W101" s="66"/>
+      <c r="X101" s="105" t="s">
         <v>292</v>
       </c>
-      <c r="X101" s="105" t="s">
+      <c r="Y101" s="105" t="s">
         <v>1713</v>
       </c>
-      <c r="Y101"/>
-      <c r="AK101" s="84"/>
+      <c r="Z101"/>
       <c r="AL101" s="84"/>
       <c r="AM101" s="84"/>
       <c r="AN101" s="84"/>
       <c r="AO101" s="84"/>
       <c r="AP101" s="84"/>
-    </row>
-    <row r="102" spans="1:42" s="26" customFormat="1" ht="140">
+      <c r="AQ101" s="84"/>
+    </row>
+    <row r="102" spans="1:43" s="26" customFormat="1" ht="140">
       <c r="A102" s="71" t="s">
         <v>72</v>
       </c>
@@ -13499,21 +13636,22 @@
       <c r="V102" s="71" t="s">
         <v>1143</v>
       </c>
-      <c r="W102" s="105" t="s">
+      <c r="W102" s="66"/>
+      <c r="X102" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="X102" s="105" t="s">
+      <c r="Y102" s="105" t="s">
         <v>1714</v>
       </c>
-      <c r="Y102"/>
-      <c r="AK102" s="85"/>
+      <c r="Z102"/>
       <c r="AL102" s="85"/>
       <c r="AM102" s="85"/>
       <c r="AN102" s="85"/>
       <c r="AO102" s="85"/>
       <c r="AP102" s="85"/>
-    </row>
-    <row r="103" spans="1:42" customFormat="1" ht="182">
+      <c r="AQ102" s="85"/>
+    </row>
+    <row r="103" spans="1:43" customFormat="1" ht="182">
       <c r="A103" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13556,10 +13694,10 @@
       <c r="V103" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W103" s="105" t="s">
+      <c r="W103" s="66"/>
+      <c r="X103" s="105" t="s">
         <v>1127</v>
       </c>
-      <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
@@ -13570,14 +13708,15 @@
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
-      <c r="AK103" s="83"/>
+      <c r="AK103" s="1"/>
       <c r="AL103" s="83"/>
       <c r="AM103" s="83"/>
       <c r="AN103" s="83"/>
       <c r="AO103" s="83"/>
       <c r="AP103" s="83"/>
-    </row>
-    <row r="104" spans="1:42" ht="84">
+      <c r="AQ103" s="83"/>
+    </row>
+    <row r="104" spans="1:43" ht="84">
       <c r="A104" s="62" t="s">
         <v>296</v>
       </c>
@@ -13626,23 +13765,24 @@
       <c r="V104" s="62" t="s">
         <v>1150</v>
       </c>
-      <c r="W104" s="105" t="s">
+      <c r="W104" s="66"/>
+      <c r="X104" s="105" t="s">
         <v>1590</v>
       </c>
-      <c r="X104" s="105" t="s">
+      <c r="Y104" s="105" t="s">
         <v>1715</v>
       </c>
-      <c r="Y104" s="105" t="s">
+      <c r="Z104" s="105" t="s">
         <v>1716</v>
       </c>
-      <c r="AK104" s="83"/>
       <c r="AL104" s="83"/>
       <c r="AM104" s="83"/>
       <c r="AN104" s="83"/>
       <c r="AO104" s="83"/>
       <c r="AP104" s="83"/>
-    </row>
-    <row r="105" spans="1:42">
+      <c r="AQ104" s="83"/>
+    </row>
+    <row r="105" spans="1:43">
       <c r="A105" s="62" t="s">
         <v>28</v>
       </c>
@@ -13679,14 +13819,15 @@
       <c r="V105" s="66" t="s">
         <v>1781</v>
       </c>
-      <c r="AK105" s="83"/>
+      <c r="W105" s="66"/>
       <c r="AL105" s="83"/>
       <c r="AM105" s="83"/>
       <c r="AN105" s="83"/>
       <c r="AO105" s="83"/>
       <c r="AP105" s="83"/>
-    </row>
-    <row r="106" spans="1:42" ht="126">
+      <c r="AQ105" s="83"/>
+    </row>
+    <row r="106" spans="1:43" ht="126">
       <c r="A106" s="62" t="s">
         <v>302</v>
       </c>
@@ -13733,23 +13874,24 @@
       <c r="V106" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="W106" s="105" t="s">
+      <c r="W106" s="66"/>
+      <c r="X106" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="X106" s="105" t="s">
+      <c r="Y106" s="105" t="s">
         <v>1717</v>
       </c>
-      <c r="Y106" s="105" t="s">
+      <c r="Z106" s="105" t="s">
         <v>1718</v>
       </c>
-      <c r="AK106" s="83"/>
       <c r="AL106" s="83"/>
       <c r="AM106" s="83"/>
       <c r="AN106" s="83"/>
       <c r="AO106" s="83"/>
       <c r="AP106" s="83"/>
-    </row>
-    <row r="107" spans="1:42" ht="56">
+      <c r="AQ106" s="83"/>
+    </row>
+    <row r="107" spans="1:43" ht="56">
       <c r="A107" s="62" t="s">
         <v>101</v>
       </c>
@@ -13786,17 +13928,18 @@
         <v>309</v>
       </c>
       <c r="V107" s="62"/>
-      <c r="W107" s="105" t="s">
+      <c r="W107" s="66"/>
+      <c r="X107" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="AK107" s="83"/>
       <c r="AL107" s="83"/>
       <c r="AM107" s="83"/>
       <c r="AN107" s="83"/>
       <c r="AO107" s="83"/>
       <c r="AP107" s="83"/>
-    </row>
-    <row r="108" spans="1:42">
+      <c r="AQ107" s="83"/>
+    </row>
+    <row r="108" spans="1:43">
       <c r="A108" s="62" t="s">
         <v>39</v>
       </c>
@@ -13825,14 +13968,15 @@
       <c r="T108" s="62"/>
       <c r="U108" s="63"/>
       <c r="V108" s="62"/>
-      <c r="AK108" s="83"/>
+      <c r="W108" s="66"/>
       <c r="AL108" s="83"/>
       <c r="AM108" s="83"/>
       <c r="AN108" s="83"/>
       <c r="AO108" s="83"/>
       <c r="AP108" s="83"/>
-    </row>
-    <row r="109" spans="1:42" ht="42">
+      <c r="AQ108" s="83"/>
+    </row>
+    <row r="109" spans="1:43" ht="42">
       <c r="A109" s="62" t="s">
         <v>17</v>
       </c>
@@ -13863,14 +14007,15 @@
       <c r="T109" s="62"/>
       <c r="U109" s="63"/>
       <c r="V109" s="62"/>
-      <c r="AK109" s="83"/>
+      <c r="W109" s="62"/>
       <c r="AL109" s="83"/>
       <c r="AM109" s="83"/>
       <c r="AN109" s="83"/>
       <c r="AO109" s="83"/>
       <c r="AP109" s="83"/>
-    </row>
-    <row r="110" spans="1:42" ht="409">
+      <c r="AQ109" s="83"/>
+    </row>
+    <row r="110" spans="1:43" ht="409">
       <c r="A110" s="62" t="s">
         <v>17</v>
       </c>
@@ -13901,14 +14046,15 @@
       <c r="T110" s="62"/>
       <c r="U110" s="63"/>
       <c r="V110" s="62"/>
-      <c r="AK110" s="83"/>
+      <c r="W110" s="66"/>
       <c r="AL110" s="83"/>
       <c r="AM110" s="83"/>
       <c r="AN110" s="83"/>
       <c r="AO110" s="83"/>
       <c r="AP110" s="83"/>
-    </row>
-    <row r="111" spans="1:42" ht="182">
+      <c r="AQ110" s="83"/>
+    </row>
+    <row r="111" spans="1:43" ht="182">
       <c r="A111" s="62" t="s">
         <v>312</v>
       </c>
@@ -13957,23 +14103,24 @@
       <c r="V111" s="62" t="s">
         <v>1171</v>
       </c>
-      <c r="W111" s="105" t="s">
+      <c r="W111" s="66"/>
+      <c r="X111" s="105" t="s">
         <v>1719</v>
       </c>
-      <c r="X111" s="105" t="s">
+      <c r="Y111" s="105" t="s">
         <v>1720</v>
       </c>
-      <c r="Y111" s="105" t="s">
+      <c r="Z111" s="105" t="s">
         <v>1721</v>
       </c>
-      <c r="AK111" s="83"/>
       <c r="AL111" s="83"/>
       <c r="AM111" s="83"/>
       <c r="AN111" s="83"/>
       <c r="AO111" s="83"/>
       <c r="AP111" s="83"/>
-    </row>
-    <row r="112" spans="1:42" ht="210">
+      <c r="AQ111" s="83"/>
+    </row>
+    <row r="112" spans="1:43" ht="210">
       <c r="A112" s="62" t="s">
         <v>312</v>
       </c>
@@ -14022,23 +14169,24 @@
       <c r="V112" s="62" t="s">
         <v>1171</v>
       </c>
-      <c r="W112" s="107" t="s">
+      <c r="W112" s="66"/>
+      <c r="X112" s="107" t="s">
         <v>1722</v>
       </c>
-      <c r="X112" s="107" t="s">
+      <c r="Y112" s="107" t="s">
         <v>1720</v>
       </c>
-      <c r="Y112" s="107" t="s">
+      <c r="Z112" s="107" t="s">
         <v>1721</v>
       </c>
-      <c r="AK112" s="83"/>
       <c r="AL112" s="83"/>
       <c r="AM112" s="83"/>
       <c r="AN112" s="83"/>
       <c r="AO112" s="83"/>
       <c r="AP112" s="83"/>
-    </row>
-    <row r="113" spans="1:42" ht="84">
+      <c r="AQ112" s="83"/>
+    </row>
+    <row r="113" spans="1:43" ht="84">
       <c r="A113" s="62" t="s">
         <v>17</v>
       </c>
@@ -14071,14 +14219,15 @@
       <c r="T113" s="62"/>
       <c r="U113" s="63"/>
       <c r="V113" s="62"/>
-      <c r="AK113" s="83"/>
+      <c r="W113" s="66"/>
       <c r="AL113" s="83"/>
       <c r="AM113" s="83"/>
       <c r="AN113" s="83"/>
       <c r="AO113" s="83"/>
       <c r="AP113" s="83"/>
-    </row>
-    <row r="114" spans="1:42" s="50" customFormat="1" ht="126">
+      <c r="AQ113" s="83"/>
+    </row>
+    <row r="114" spans="1:43" s="50" customFormat="1" ht="126">
       <c r="A114" s="63" t="s">
         <v>979</v>
       </c>
@@ -14125,21 +14274,22 @@
       <c r="V114" s="63" t="s">
         <v>1152</v>
       </c>
-      <c r="W114" s="37" t="s">
+      <c r="W114" s="62"/>
+      <c r="X114" s="37" t="s">
         <v>1788</v>
       </c>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="107" t="s">
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="107" t="s">
         <v>1666</v>
       </c>
-      <c r="AK114" s="86"/>
       <c r="AL114" s="86"/>
       <c r="AM114" s="86"/>
       <c r="AN114" s="86"/>
       <c r="AO114" s="86"/>
       <c r="AP114" s="86"/>
-    </row>
-    <row r="115" spans="1:42" s="50" customFormat="1" ht="156">
+      <c r="AQ114" s="86"/>
+    </row>
+    <row r="115" spans="1:43" s="50" customFormat="1" ht="156">
       <c r="A115" s="63" t="s">
         <v>60</v>
       </c>
@@ -14186,21 +14336,22 @@
       <c r="V115" s="63" t="s">
         <v>1152</v>
       </c>
-      <c r="W115" s="107" t="s">
+      <c r="W115" s="62"/>
+      <c r="X115" s="107" t="s">
         <v>1771</v>
       </c>
-      <c r="X115" s="107" t="s">
+      <c r="Y115" s="107" t="s">
         <v>1723</v>
       </c>
-      <c r="Y115" s="1"/>
-      <c r="AK115" s="86"/>
+      <c r="Z115" s="1"/>
       <c r="AL115" s="86"/>
       <c r="AM115" s="86"/>
       <c r="AN115" s="86"/>
       <c r="AO115" s="86"/>
       <c r="AP115" s="86"/>
-    </row>
-    <row r="116" spans="1:42" s="50" customFormat="1" ht="140">
+      <c r="AQ115" s="86"/>
+    </row>
+    <row r="116" spans="1:43" s="50" customFormat="1" ht="140">
       <c r="A116" s="63" t="s">
         <v>982</v>
       </c>
@@ -14243,19 +14394,20 @@
       <c r="V116" s="63" t="s">
         <v>1152</v>
       </c>
-      <c r="W116" s="107" t="s">
+      <c r="W116" s="66"/>
+      <c r="X116" s="107" t="s">
         <v>1772</v>
       </c>
-      <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
-      <c r="AK116" s="86"/>
+      <c r="Z116" s="1"/>
       <c r="AL116" s="86"/>
       <c r="AM116" s="86"/>
       <c r="AN116" s="86"/>
       <c r="AO116" s="86"/>
       <c r="AP116" s="86"/>
-    </row>
-    <row r="117" spans="1:42" s="50" customFormat="1" ht="196">
+      <c r="AQ116" s="86"/>
+    </row>
+    <row r="117" spans="1:43" s="50" customFormat="1" ht="196">
       <c r="A117" s="63" t="s">
         <v>60</v>
       </c>
@@ -14304,23 +14456,24 @@
       <c r="V117" s="63" t="s">
         <v>1172</v>
       </c>
-      <c r="W117" s="105" t="s">
+      <c r="W117" s="120"/>
+      <c r="X117" s="105" t="s">
         <v>1773</v>
       </c>
-      <c r="X117" s="105" t="s">
+      <c r="Y117" s="105" t="s">
         <v>1724</v>
       </c>
-      <c r="Y117" s="105" t="s">
+      <c r="Z117" s="105" t="s">
         <v>1666</v>
       </c>
-      <c r="AK117" s="86"/>
       <c r="AL117" s="86"/>
       <c r="AM117" s="86"/>
       <c r="AN117" s="86"/>
       <c r="AO117" s="86"/>
       <c r="AP117" s="86"/>
-    </row>
-    <row r="118" spans="1:42">
+      <c r="AQ117" s="86"/>
+    </row>
+    <row r="118" spans="1:43">
       <c r="A118" s="62" t="s">
         <v>28</v>
       </c>
@@ -14357,14 +14510,15 @@
       <c r="V118" s="66" t="s">
         <v>1781</v>
       </c>
-      <c r="AK118" s="83"/>
+      <c r="W118" s="120"/>
       <c r="AL118" s="83"/>
       <c r="AM118" s="83"/>
       <c r="AN118" s="83"/>
       <c r="AO118" s="83"/>
       <c r="AP118" s="83"/>
-    </row>
-    <row r="119" spans="1:42" ht="112">
+      <c r="AQ118" s="83"/>
+    </row>
+    <row r="119" spans="1:43" ht="112">
       <c r="A119" s="62" t="s">
         <v>322</v>
       </c>
@@ -14411,23 +14565,24 @@
       <c r="V119" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="W119" s="105" t="s">
+      <c r="W119" s="120"/>
+      <c r="X119" s="105" t="s">
         <v>1725</v>
       </c>
-      <c r="X119" s="105" t="s">
+      <c r="Y119" s="105" t="s">
         <v>1726</v>
       </c>
-      <c r="Y119" s="105" t="s">
+      <c r="Z119" s="105" t="s">
         <v>1718</v>
       </c>
-      <c r="AK119" s="83"/>
       <c r="AL119" s="83"/>
       <c r="AM119" s="83"/>
       <c r="AN119" s="83"/>
       <c r="AO119" s="83"/>
       <c r="AP119" s="83"/>
-    </row>
-    <row r="120" spans="1:42" ht="56">
+      <c r="AQ119" s="83"/>
+    </row>
+    <row r="120" spans="1:43" ht="56">
       <c r="A120" s="62" t="s">
         <v>101</v>
       </c>
@@ -14464,17 +14619,18 @@
         <v>247</v>
       </c>
       <c r="V120" s="62"/>
-      <c r="W120" s="105" t="s">
+      <c r="W120" s="120"/>
+      <c r="X120" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="AK120" s="83"/>
       <c r="AL120" s="83"/>
       <c r="AM120" s="83"/>
       <c r="AN120" s="83"/>
       <c r="AO120" s="83"/>
       <c r="AP120" s="83"/>
-    </row>
-    <row r="121" spans="1:42">
+      <c r="AQ120" s="83"/>
+    </row>
+    <row r="121" spans="1:43">
       <c r="A121" s="62" t="s">
         <v>39</v>
       </c>
@@ -14503,14 +14659,15 @@
       <c r="T121" s="62"/>
       <c r="U121" s="63"/>
       <c r="V121" s="62"/>
-      <c r="AK121" s="83"/>
+      <c r="W121" s="120"/>
       <c r="AL121" s="83"/>
       <c r="AM121" s="83"/>
       <c r="AN121" s="83"/>
       <c r="AO121" s="83"/>
       <c r="AP121" s="83"/>
-    </row>
-    <row r="122" spans="1:42" ht="28">
+      <c r="AQ121" s="83"/>
+    </row>
+    <row r="122" spans="1:43" ht="28">
       <c r="A122" s="62" t="s">
         <v>17</v>
       </c>
@@ -14541,14 +14698,15 @@
       <c r="T122" s="62"/>
       <c r="U122" s="63"/>
       <c r="V122" s="62"/>
-      <c r="AK122" s="83"/>
+      <c r="W122" s="120"/>
       <c r="AL122" s="83"/>
       <c r="AM122" s="83"/>
       <c r="AN122" s="83"/>
       <c r="AO122" s="83"/>
       <c r="AP122" s="83"/>
-    </row>
-    <row r="123" spans="1:42" ht="409">
+      <c r="AQ122" s="83"/>
+    </row>
+    <row r="123" spans="1:43" ht="409">
       <c r="A123" s="62" t="s">
         <v>17</v>
       </c>
@@ -14579,14 +14737,15 @@
       <c r="T123" s="62"/>
       <c r="U123" s="63"/>
       <c r="V123" s="62"/>
-      <c r="AK123" s="83"/>
+      <c r="W123" s="120"/>
       <c r="AL123" s="83"/>
       <c r="AM123" s="83"/>
       <c r="AN123" s="83"/>
       <c r="AO123" s="83"/>
       <c r="AP123" s="83"/>
-    </row>
-    <row r="124" spans="1:42" ht="126">
+      <c r="AQ123" s="83"/>
+    </row>
+    <row r="124" spans="1:43" ht="126">
       <c r="A124" s="62" t="s">
         <v>330</v>
       </c>
@@ -14635,23 +14794,24 @@
       <c r="V124" s="62" t="s">
         <v>1609</v>
       </c>
-      <c r="W124" s="105" t="s">
+      <c r="W124" s="120"/>
+      <c r="X124" s="105" t="s">
         <v>1727</v>
       </c>
-      <c r="X124" s="105" t="s">
+      <c r="Y124" s="105" t="s">
         <v>1728</v>
       </c>
-      <c r="Y124" s="105" t="s">
+      <c r="Z124" s="105" t="s">
         <v>1729</v>
       </c>
-      <c r="AK124" s="83"/>
       <c r="AL124" s="83"/>
       <c r="AM124" s="83"/>
       <c r="AN124" s="83"/>
       <c r="AO124" s="83"/>
       <c r="AP124" s="83"/>
-    </row>
-    <row r="125" spans="1:42" ht="84">
+      <c r="AQ124" s="83"/>
+    </row>
+    <row r="125" spans="1:43" ht="84">
       <c r="A125" s="62" t="s">
         <v>17</v>
       </c>
@@ -14684,14 +14844,15 @@
       <c r="T125" s="62"/>
       <c r="U125" s="63"/>
       <c r="V125" s="62"/>
-      <c r="AK125" s="83"/>
+      <c r="W125" s="120"/>
       <c r="AL125" s="83"/>
       <c r="AM125" s="83"/>
       <c r="AN125" s="83"/>
       <c r="AO125" s="83"/>
       <c r="AP125" s="83"/>
-    </row>
-    <row r="126" spans="1:42" ht="56">
+      <c r="AQ125" s="83"/>
+    </row>
+    <row r="126" spans="1:43" ht="56">
       <c r="A126" s="62" t="s">
         <v>17</v>
       </c>
@@ -14724,14 +14885,15 @@
       <c r="T126" s="62"/>
       <c r="U126" s="63"/>
       <c r="V126" s="62"/>
-      <c r="AK126" s="83"/>
+      <c r="W126" s="120"/>
       <c r="AL126" s="83"/>
       <c r="AM126" s="83"/>
       <c r="AN126" s="83"/>
       <c r="AO126" s="83"/>
       <c r="AP126" s="83"/>
-    </row>
-    <row r="127" spans="1:42" ht="196">
+      <c r="AQ126" s="83"/>
+    </row>
+    <row r="127" spans="1:43" ht="196">
       <c r="A127" s="62" t="s">
         <v>84</v>
       </c>
@@ -14774,17 +14936,18 @@
       <c r="V127" s="62" t="s">
         <v>1154</v>
       </c>
-      <c r="W127" s="105" t="s">
+      <c r="W127" s="120"/>
+      <c r="X127" s="105" t="s">
         <v>1211</v>
       </c>
-      <c r="AK127" s="83"/>
       <c r="AL127" s="83"/>
       <c r="AM127" s="83"/>
       <c r="AN127" s="83"/>
       <c r="AO127" s="83"/>
       <c r="AP127" s="83"/>
-    </row>
-    <row r="128" spans="1:42" ht="168">
+      <c r="AQ127" s="83"/>
+    </row>
+    <row r="128" spans="1:43" ht="168">
       <c r="A128" s="62" t="s">
         <v>896</v>
       </c>
@@ -14829,20 +14992,21 @@
       <c r="V128" s="62" t="s">
         <v>1173</v>
       </c>
-      <c r="W128" s="105" t="s">
+      <c r="W128" s="120"/>
+      <c r="X128" s="105" t="s">
         <v>1730</v>
       </c>
-      <c r="X128" s="105" t="s">
+      <c r="Y128" s="105" t="s">
         <v>1731</v>
       </c>
-      <c r="AK128" s="83"/>
       <c r="AL128" s="83"/>
       <c r="AM128" s="83"/>
       <c r="AN128" s="83"/>
       <c r="AO128" s="83"/>
       <c r="AP128" s="83"/>
-    </row>
-    <row r="129" spans="1:257" ht="70">
+      <c r="AQ128" s="83"/>
+    </row>
+    <row r="129" spans="1:258" ht="70">
       <c r="A129" s="62" t="s">
         <v>17</v>
       </c>
@@ -14875,14 +15039,15 @@
       <c r="T129" s="62"/>
       <c r="U129" s="63"/>
       <c r="V129" s="62"/>
-      <c r="AK129" s="83"/>
+      <c r="W129" s="120"/>
       <c r="AL129" s="83"/>
       <c r="AM129" s="83"/>
       <c r="AN129" s="83"/>
       <c r="AO129" s="83"/>
       <c r="AP129" s="83"/>
-    </row>
-    <row r="130" spans="1:257" ht="112">
+      <c r="AQ129" s="83"/>
+    </row>
+    <row r="130" spans="1:258" ht="112">
       <c r="A130" s="62" t="s">
         <v>60</v>
       </c>
@@ -14929,20 +15094,21 @@
       <c r="V130" s="66" t="s">
         <v>1781</v>
       </c>
-      <c r="W130" s="105" t="s">
+      <c r="W130" s="120"/>
+      <c r="X130" s="105" t="s">
         <v>1732</v>
       </c>
-      <c r="X130" s="105" t="s">
+      <c r="Y130" s="105" t="s">
         <v>1733</v>
       </c>
-      <c r="AK130" s="83"/>
       <c r="AL130" s="83"/>
       <c r="AM130" s="83"/>
       <c r="AN130" s="83"/>
       <c r="AO130" s="83"/>
       <c r="AP130" s="83"/>
-    </row>
-    <row r="131" spans="1:257" ht="224">
+      <c r="AQ130" s="83"/>
+    </row>
+    <row r="131" spans="1:258" ht="224">
       <c r="A131" s="62" t="s">
         <v>900</v>
       </c>
@@ -14985,17 +15151,18 @@
       <c r="V131" s="62" t="s">
         <v>1156</v>
       </c>
-      <c r="W131" s="105" t="s">
+      <c r="W131" s="120"/>
+      <c r="X131" s="105" t="s">
         <v>1734</v>
       </c>
-      <c r="AK131" s="83"/>
       <c r="AL131" s="83"/>
       <c r="AM131" s="83"/>
       <c r="AN131" s="83"/>
       <c r="AO131" s="83"/>
       <c r="AP131" s="83"/>
-    </row>
-    <row r="132" spans="1:257" ht="126">
+      <c r="AQ131" s="83"/>
+    </row>
+    <row r="132" spans="1:258" ht="126">
       <c r="A132" s="62" t="s">
         <v>901</v>
       </c>
@@ -15038,17 +15205,18 @@
       <c r="V132" s="62" t="s">
         <v>1156</v>
       </c>
-      <c r="W132" s="105" t="s">
+      <c r="W132" s="120"/>
+      <c r="X132" s="105" t="s">
         <v>1735</v>
       </c>
-      <c r="AK132" s="83"/>
       <c r="AL132" s="83"/>
       <c r="AM132" s="83"/>
       <c r="AN132" s="83"/>
       <c r="AO132" s="83"/>
       <c r="AP132" s="83"/>
-    </row>
-    <row r="133" spans="1:257" ht="168">
+      <c r="AQ132" s="83"/>
+    </row>
+    <row r="133" spans="1:258" ht="168">
       <c r="A133" s="62" t="s">
         <v>24</v>
       </c>
@@ -15093,20 +15261,21 @@
       <c r="V133" s="66" t="s">
         <v>1781</v>
       </c>
-      <c r="W133" s="105" t="s">
+      <c r="W133" s="120"/>
+      <c r="X133" s="105" t="s">
         <v>1213</v>
       </c>
-      <c r="X133" s="105" t="s">
+      <c r="Y133" s="105" t="s">
         <v>1735</v>
       </c>
-      <c r="AK133" s="83"/>
       <c r="AL133" s="83"/>
       <c r="AM133" s="83"/>
       <c r="AN133" s="83"/>
       <c r="AO133" s="83"/>
       <c r="AP133" s="83"/>
-    </row>
-    <row r="134" spans="1:257" ht="98">
+      <c r="AQ133" s="83"/>
+    </row>
+    <row r="134" spans="1:258" ht="98">
       <c r="A134" s="62" t="s">
         <v>902</v>
       </c>
@@ -15149,17 +15318,18 @@
       <c r="V134" s="63" t="s">
         <v>1174</v>
       </c>
-      <c r="W134" s="63" t="s">
+      <c r="W134" s="120"/>
+      <c r="X134" s="63" t="s">
         <v>1746</v>
       </c>
-      <c r="AK134" s="83"/>
       <c r="AL134" s="83"/>
       <c r="AM134" s="83"/>
       <c r="AN134" s="83"/>
       <c r="AO134" s="83"/>
       <c r="AP134" s="83"/>
-    </row>
-    <row r="135" spans="1:257" s="50" customFormat="1" ht="84">
+      <c r="AQ134" s="83"/>
+    </row>
+    <row r="135" spans="1:258" s="50" customFormat="1" ht="84">
       <c r="A135" s="63" t="s">
         <v>991</v>
       </c>
@@ -15204,21 +15374,22 @@
       <c r="V135" s="63" t="s">
         <v>1158</v>
       </c>
-      <c r="W135" s="105" t="s">
+      <c r="W135" s="120"/>
+      <c r="X135" s="105" t="s">
         <v>1764</v>
       </c>
-      <c r="X135" s="105" t="s">
+      <c r="Y135" s="105" t="s">
         <v>1736</v>
       </c>
-      <c r="Y135"/>
-      <c r="AK135" s="86"/>
+      <c r="Z135"/>
       <c r="AL135" s="86"/>
       <c r="AM135" s="86"/>
       <c r="AN135" s="86"/>
       <c r="AO135" s="86"/>
       <c r="AP135" s="86"/>
-    </row>
-    <row r="136" spans="1:257" s="50" customFormat="1" ht="126">
+      <c r="AQ135" s="86"/>
+    </row>
+    <row r="136" spans="1:258" s="50" customFormat="1" ht="126">
       <c r="A136" s="63" t="s">
         <v>993</v>
       </c>
@@ -15261,19 +15432,20 @@
       <c r="V136" s="63" t="s">
         <v>1158</v>
       </c>
-      <c r="W136" s="107" t="s">
+      <c r="W136" s="120"/>
+      <c r="X136" s="107" t="s">
         <v>1765</v>
       </c>
-      <c r="X136"/>
       <c r="Y136"/>
-      <c r="AK136" s="86"/>
+      <c r="Z136"/>
       <c r="AL136" s="86"/>
       <c r="AM136" s="86"/>
       <c r="AN136" s="86"/>
       <c r="AO136" s="86"/>
       <c r="AP136" s="86"/>
-    </row>
-    <row r="137" spans="1:257" s="50" customFormat="1" ht="252">
+      <c r="AQ136" s="86"/>
+    </row>
+    <row r="137" spans="1:258" s="50" customFormat="1" ht="252">
       <c r="A137" s="63" t="s">
         <v>60</v>
       </c>
@@ -15322,23 +15494,24 @@
       <c r="V137" s="63" t="s">
         <v>1158</v>
       </c>
-      <c r="W137" s="107" t="s">
+      <c r="W137" s="120"/>
+      <c r="X137" s="107" t="s">
         <v>1766</v>
       </c>
-      <c r="X137" s="105" t="s">
+      <c r="Y137" s="105" t="s">
         <v>1737</v>
       </c>
-      <c r="Y137" s="105" t="s">
+      <c r="Z137" s="105" t="s">
         <v>1666</v>
       </c>
-      <c r="AK137" s="86"/>
       <c r="AL137" s="86"/>
       <c r="AM137" s="86"/>
       <c r="AN137" s="86"/>
       <c r="AO137" s="86"/>
       <c r="AP137" s="86"/>
-    </row>
-    <row r="138" spans="1:257" ht="182">
+      <c r="AQ137" s="86"/>
+    </row>
+    <row r="138" spans="1:258" ht="182">
       <c r="A138" s="62" t="s">
         <v>60</v>
       </c>
@@ -15387,23 +15560,24 @@
       <c r="V138" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="W138" s="105" t="s">
+      <c r="W138" s="120"/>
+      <c r="X138" s="105" t="s">
         <v>1738</v>
       </c>
-      <c r="X138" s="105" t="s">
+      <c r="Y138" s="105" t="s">
         <v>1739</v>
       </c>
-      <c r="Y138" s="105" t="s">
+      <c r="Z138" s="105" t="s">
         <v>1740</v>
       </c>
-      <c r="AK138" s="83"/>
       <c r="AL138" s="83"/>
       <c r="AM138" s="83"/>
       <c r="AN138" s="83"/>
       <c r="AO138" s="83"/>
       <c r="AP138" s="83"/>
-    </row>
-    <row r="139" spans="1:257" ht="168">
+      <c r="AQ138" s="83"/>
+    </row>
+    <row r="139" spans="1:258" ht="168">
       <c r="A139" s="62" t="s">
         <v>72</v>
       </c>
@@ -15440,17 +15614,18 @@
         <v>337</v>
       </c>
       <c r="V139" s="62"/>
-      <c r="W139" s="105" t="s">
+      <c r="W139" s="120"/>
+      <c r="X139" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="AK139" s="83"/>
       <c r="AL139" s="83"/>
       <c r="AM139" s="83"/>
       <c r="AN139" s="83"/>
       <c r="AO139" s="83"/>
       <c r="AP139" s="83"/>
-    </row>
-    <row r="140" spans="1:257">
+      <c r="AQ139" s="83"/>
+    </row>
+    <row r="140" spans="1:258">
       <c r="A140" s="62" t="s">
         <v>17</v>
       </c>
@@ -15481,14 +15656,15 @@
       <c r="T140" s="62"/>
       <c r="U140" s="63"/>
       <c r="V140" s="62"/>
-      <c r="AK140" s="83"/>
+      <c r="W140" s="120"/>
       <c r="AL140" s="83"/>
       <c r="AM140" s="83"/>
       <c r="AN140" s="83"/>
       <c r="AO140" s="83"/>
       <c r="AP140" s="83"/>
-    </row>
-    <row r="141" spans="1:257" ht="126">
+      <c r="AQ140" s="83"/>
+    </row>
+    <row r="141" spans="1:258" ht="126">
       <c r="A141" s="62" t="s">
         <v>340</v>
       </c>
@@ -15535,20 +15711,21 @@
       <c r="V141" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="W141" s="107" t="s">
+      <c r="W141" s="120"/>
+      <c r="X141" s="107" t="s">
         <v>343</v>
       </c>
-      <c r="X141" s="107" t="s">
+      <c r="Y141" s="107" t="s">
         <v>1790</v>
       </c>
-      <c r="AK141" s="83"/>
       <c r="AL141" s="83"/>
       <c r="AM141" s="83"/>
       <c r="AN141" s="83"/>
       <c r="AO141" s="83"/>
       <c r="AP141" s="83"/>
-    </row>
-    <row r="142" spans="1:257" ht="126">
+      <c r="AQ141" s="83"/>
+    </row>
+    <row r="142" spans="1:258" ht="126">
       <c r="A142" s="62" t="s">
         <v>72</v>
       </c>
@@ -15591,20 +15768,21 @@
       <c r="V142" s="62" t="s">
         <v>1142</v>
       </c>
-      <c r="W142" s="105" t="s">
+      <c r="W142" s="120"/>
+      <c r="X142" s="105" t="s">
         <v>345</v>
       </c>
-      <c r="X142" s="105" t="s">
+      <c r="Y142" s="105" t="s">
         <v>1741</v>
       </c>
-      <c r="AK142" s="83"/>
       <c r="AL142" s="83"/>
       <c r="AM142" s="83"/>
       <c r="AN142" s="83"/>
       <c r="AO142" s="83"/>
       <c r="AP142" s="83"/>
-    </row>
-    <row r="143" spans="1:257" s="26" customFormat="1" ht="42">
+      <c r="AQ142" s="83"/>
+    </row>
+    <row r="143" spans="1:258" s="26" customFormat="1" ht="42">
       <c r="A143" s="116" t="s">
         <v>72</v>
       </c>
@@ -15639,12 +15817,12 @@
         <v>1747</v>
       </c>
       <c r="V143" s="116"/>
-      <c r="W143" s="118" t="s">
+      <c r="W143" s="120"/>
+      <c r="X143" s="118" t="s">
         <v>1747</v>
       </c>
-      <c r="X143" s="118"/>
       <c r="Y143" s="118"/>
-      <c r="Z143" s="116"/>
+      <c r="Z143" s="118"/>
       <c r="AA143" s="116"/>
       <c r="AB143" s="116"/>
       <c r="AC143" s="116"/>
@@ -15655,13 +15833,13 @@
       <c r="AH143" s="116"/>
       <c r="AI143" s="116"/>
       <c r="AJ143" s="116"/>
-      <c r="AK143" s="119"/>
+      <c r="AK143" s="116"/>
       <c r="AL143" s="119"/>
       <c r="AM143" s="119"/>
       <c r="AN143" s="119"/>
       <c r="AO143" s="119"/>
       <c r="AP143" s="119"/>
-      <c r="AQ143" s="116"/>
+      <c r="AQ143" s="119"/>
       <c r="AR143" s="116"/>
       <c r="AS143" s="116"/>
       <c r="AT143" s="116"/>
@@ -15876,8 +16054,9 @@
       <c r="IU143" s="116"/>
       <c r="IV143" s="116"/>
       <c r="IW143" s="116"/>
-    </row>
-    <row r="144" spans="1:257" ht="168">
+      <c r="IX143" s="116"/>
+    </row>
+    <row r="144" spans="1:258" ht="168">
       <c r="A144" s="62" t="s">
         <v>346</v>
       </c>
@@ -15918,20 +16097,21 @@
       <c r="V144" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W144" s="105" t="s">
+      <c r="W144" s="120"/>
+      <c r="X144" s="105" t="s">
         <v>1748</v>
       </c>
-      <c r="X144" s="105" t="s">
+      <c r="Y144" s="105" t="s">
         <v>1742</v>
       </c>
-      <c r="AK144" s="83"/>
       <c r="AL144" s="83"/>
       <c r="AM144" s="83"/>
       <c r="AN144" s="83"/>
       <c r="AO144" s="83"/>
       <c r="AP144" s="83"/>
-    </row>
-    <row r="145" spans="1:42" ht="56">
+      <c r="AQ144" s="83"/>
+    </row>
+    <row r="145" spans="1:43" ht="56">
       <c r="A145" s="62" t="s">
         <v>351</v>
       </c>
@@ -15972,17 +16152,18 @@
       <c r="V145" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W145" s="105" t="s">
+      <c r="W145" s="120"/>
+      <c r="X145" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="AK145" s="83"/>
       <c r="AL145" s="83"/>
       <c r="AM145" s="83"/>
       <c r="AN145" s="83"/>
       <c r="AO145" s="83"/>
       <c r="AP145" s="83"/>
-    </row>
-    <row r="146" spans="1:42" s="37" customFormat="1" ht="56">
+      <c r="AQ145" s="83"/>
+    </row>
+    <row r="146" spans="1:43" s="37" customFormat="1" ht="56">
       <c r="A146" s="66" t="s">
         <v>354</v>
       </c>
@@ -16023,19 +16204,20 @@
       <c r="V146" s="66" t="s">
         <v>1143</v>
       </c>
-      <c r="W146" s="105" t="s">
+      <c r="W146" s="120"/>
+      <c r="X146" s="105" t="s">
         <v>1627</v>
       </c>
-      <c r="X146"/>
       <c r="Y146"/>
-      <c r="AK146" s="84"/>
+      <c r="Z146"/>
       <c r="AL146" s="84"/>
       <c r="AM146" s="84"/>
       <c r="AN146" s="84"/>
       <c r="AO146" s="84"/>
       <c r="AP146" s="84"/>
-    </row>
-    <row r="147" spans="1:42" ht="409">
+      <c r="AQ146" s="84"/>
+    </row>
+    <row r="147" spans="1:43" ht="409">
       <c r="A147" s="62" t="s">
         <v>357</v>
       </c>
@@ -16082,23 +16264,24 @@
       <c r="V147" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="W147" s="105" t="s">
+      <c r="W147" s="120"/>
+      <c r="X147" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="X147" s="105" t="s">
+      <c r="Y147" s="105" t="s">
         <v>1743</v>
       </c>
-      <c r="Y147" s="105" t="s">
+      <c r="Z147" s="105" t="s">
         <v>1744</v>
       </c>
-      <c r="AK147" s="83"/>
       <c r="AL147" s="83"/>
       <c r="AM147" s="83"/>
       <c r="AN147" s="83"/>
       <c r="AO147" s="83"/>
       <c r="AP147" s="83"/>
-    </row>
-    <row r="148" spans="1:42">
+      <c r="AQ147" s="83"/>
+    </row>
+    <row r="148" spans="1:43">
       <c r="A148" s="62" t="s">
         <v>361</v>
       </c>
@@ -16127,14 +16310,15 @@
       <c r="T148" s="62"/>
       <c r="U148" s="63"/>
       <c r="V148" s="62"/>
-      <c r="AK148" s="83"/>
+      <c r="W148" s="120"/>
       <c r="AL148" s="83"/>
       <c r="AM148" s="83"/>
       <c r="AN148" s="83"/>
       <c r="AO148" s="83"/>
       <c r="AP148" s="83"/>
-    </row>
-    <row r="149" spans="1:42">
+      <c r="AQ148" s="83"/>
+    </row>
+    <row r="149" spans="1:43">
       <c r="A149" s="62" t="s">
         <v>363</v>
       </c>
@@ -16163,14 +16347,15 @@
       <c r="T149" s="62"/>
       <c r="U149" s="63"/>
       <c r="V149" s="62"/>
-      <c r="AK149" s="83"/>
+      <c r="W149" s="120"/>
       <c r="AL149" s="83"/>
       <c r="AM149" s="83"/>
       <c r="AN149" s="83"/>
       <c r="AO149" s="83"/>
       <c r="AP149" s="83"/>
-    </row>
-    <row r="150" spans="1:42">
+      <c r="AQ149" s="83"/>
+    </row>
+    <row r="150" spans="1:43">
       <c r="A150" s="62" t="s">
         <v>364</v>
       </c>
@@ -16199,14 +16384,15 @@
       <c r="T150" s="62"/>
       <c r="U150" s="63"/>
       <c r="V150" s="62"/>
-      <c r="AK150" s="83"/>
+      <c r="W150" s="120"/>
       <c r="AL150" s="83"/>
       <c r="AM150" s="83"/>
       <c r="AN150" s="83"/>
       <c r="AO150" s="83"/>
       <c r="AP150" s="83"/>
-    </row>
-    <row r="151" spans="1:42">
+      <c r="AQ150" s="83"/>
+    </row>
+    <row r="151" spans="1:43">
       <c r="A151" s="62" t="s">
         <v>365</v>
       </c>
@@ -16235,14 +16421,15 @@
       <c r="T151" s="62"/>
       <c r="U151" s="63"/>
       <c r="V151" s="62"/>
-      <c r="AK151" s="83"/>
+      <c r="W151" s="120"/>
       <c r="AL151" s="83"/>
       <c r="AM151" s="83"/>
       <c r="AN151" s="83"/>
       <c r="AO151" s="83"/>
       <c r="AP151" s="83"/>
-    </row>
-    <row r="152" spans="1:42">
+      <c r="AQ151" s="83"/>
+    </row>
+    <row r="152" spans="1:43">
       <c r="A152" s="62" t="s">
         <v>366</v>
       </c>
@@ -16271,1219 +16458,1445 @@
       <c r="T152" s="62"/>
       <c r="U152" s="63"/>
       <c r="V152" s="62"/>
-      <c r="AK152" s="83"/>
+      <c r="W152" s="120"/>
       <c r="AL152" s="83"/>
       <c r="AM152" s="83"/>
       <c r="AN152" s="83"/>
       <c r="AO152" s="83"/>
       <c r="AP152" s="83"/>
-    </row>
-    <row r="153" spans="1:42">
+      <c r="AQ152" s="83"/>
+    </row>
+    <row r="153" spans="1:43">
       <c r="R153" s="120"/>
-      <c r="AK153" s="83"/>
+      <c r="W153" s="120"/>
       <c r="AL153" s="83"/>
       <c r="AM153" s="83"/>
       <c r="AN153" s="83"/>
       <c r="AO153" s="83"/>
       <c r="AP153" s="83"/>
-    </row>
-    <row r="154" spans="1:42">
+      <c r="AQ153" s="83"/>
+    </row>
+    <row r="154" spans="1:43">
       <c r="R154" s="120"/>
-      <c r="AK154" s="83"/>
+      <c r="W154" s="120"/>
       <c r="AL154" s="83"/>
       <c r="AM154" s="83"/>
       <c r="AN154" s="83"/>
       <c r="AO154" s="83"/>
       <c r="AP154" s="83"/>
-    </row>
-    <row r="155" spans="1:42">
+      <c r="AQ154" s="83"/>
+    </row>
+    <row r="155" spans="1:43">
       <c r="R155" s="120"/>
-      <c r="AK155" s="83"/>
+      <c r="W155" s="120"/>
       <c r="AL155" s="83"/>
       <c r="AM155" s="83"/>
       <c r="AN155" s="83"/>
       <c r="AO155" s="83"/>
       <c r="AP155" s="83"/>
-    </row>
-    <row r="156" spans="1:42">
+      <c r="AQ155" s="83"/>
+    </row>
+    <row r="156" spans="1:43">
       <c r="R156" s="120"/>
-      <c r="AK156" s="83"/>
+      <c r="W156" s="120"/>
       <c r="AL156" s="83"/>
       <c r="AM156" s="83"/>
       <c r="AN156" s="83"/>
       <c r="AO156" s="83"/>
       <c r="AP156" s="83"/>
-    </row>
-    <row r="157" spans="1:42">
+      <c r="AQ156" s="83"/>
+    </row>
+    <row r="157" spans="1:43">
       <c r="R157" s="120"/>
-      <c r="AK157" s="83"/>
+      <c r="W157" s="120"/>
       <c r="AL157" s="83"/>
       <c r="AM157" s="83"/>
       <c r="AN157" s="83"/>
       <c r="AO157" s="83"/>
       <c r="AP157" s="83"/>
-    </row>
-    <row r="158" spans="1:42">
+      <c r="AQ157" s="83"/>
+    </row>
+    <row r="158" spans="1:43">
       <c r="R158" s="120"/>
-      <c r="AK158" s="83"/>
+      <c r="W158" s="120"/>
       <c r="AL158" s="83"/>
       <c r="AM158" s="83"/>
       <c r="AN158" s="83"/>
       <c r="AO158" s="83"/>
       <c r="AP158" s="83"/>
-    </row>
-    <row r="159" spans="1:42">
+      <c r="AQ158" s="83"/>
+    </row>
+    <row r="159" spans="1:43">
       <c r="R159" s="120"/>
-      <c r="AK159" s="83"/>
+      <c r="W159" s="120"/>
       <c r="AL159" s="83"/>
       <c r="AM159" s="83"/>
       <c r="AN159" s="83"/>
       <c r="AO159" s="83"/>
       <c r="AP159" s="83"/>
-    </row>
-    <row r="160" spans="1:42">
+      <c r="AQ159" s="83"/>
+    </row>
+    <row r="160" spans="1:43">
       <c r="R160" s="120"/>
-      <c r="AK160" s="83"/>
+      <c r="W160" s="120"/>
       <c r="AL160" s="83"/>
       <c r="AM160" s="83"/>
       <c r="AN160" s="83"/>
       <c r="AO160" s="83"/>
       <c r="AP160" s="83"/>
-    </row>
-    <row r="161" spans="18:42">
+      <c r="AQ160" s="83"/>
+    </row>
+    <row r="161" spans="18:43">
       <c r="R161" s="120"/>
-      <c r="AK161" s="83"/>
+      <c r="W161" s="120"/>
       <c r="AL161" s="83"/>
       <c r="AM161" s="83"/>
       <c r="AN161" s="83"/>
       <c r="AO161" s="83"/>
       <c r="AP161" s="83"/>
-    </row>
-    <row r="162" spans="18:42">
+      <c r="AQ161" s="83"/>
+    </row>
+    <row r="162" spans="18:43">
       <c r="R162" s="120"/>
-      <c r="AK162" s="83"/>
+      <c r="W162" s="120"/>
       <c r="AL162" s="83"/>
       <c r="AM162" s="83"/>
       <c r="AN162" s="83"/>
       <c r="AO162" s="83"/>
       <c r="AP162" s="83"/>
-    </row>
-    <row r="163" spans="18:42">
+      <c r="AQ162" s="83"/>
+    </row>
+    <row r="163" spans="18:43">
       <c r="R163" s="120"/>
-      <c r="AK163" s="83"/>
+      <c r="W163" s="120"/>
       <c r="AL163" s="83"/>
       <c r="AM163" s="83"/>
       <c r="AN163" s="83"/>
       <c r="AO163" s="83"/>
       <c r="AP163" s="83"/>
-    </row>
-    <row r="164" spans="18:42">
+      <c r="AQ163" s="83"/>
+    </row>
+    <row r="164" spans="18:43">
       <c r="R164" s="120"/>
-      <c r="AK164" s="83"/>
+      <c r="W164" s="120"/>
       <c r="AL164" s="83"/>
       <c r="AM164" s="83"/>
       <c r="AN164" s="83"/>
       <c r="AO164" s="83"/>
       <c r="AP164" s="83"/>
-    </row>
-    <row r="165" spans="18:42">
+      <c r="AQ164" s="83"/>
+    </row>
+    <row r="165" spans="18:43">
       <c r="R165" s="120"/>
-      <c r="AK165" s="83"/>
+      <c r="W165" s="120"/>
       <c r="AL165" s="83"/>
       <c r="AM165" s="83"/>
       <c r="AN165" s="83"/>
       <c r="AO165" s="83"/>
       <c r="AP165" s="83"/>
-    </row>
-    <row r="166" spans="18:42">
+      <c r="AQ165" s="83"/>
+    </row>
+    <row r="166" spans="18:43">
       <c r="R166" s="66"/>
-      <c r="AK166" s="83"/>
+      <c r="W166" s="66"/>
       <c r="AL166" s="83"/>
       <c r="AM166" s="83"/>
       <c r="AN166" s="83"/>
       <c r="AO166" s="83"/>
       <c r="AP166" s="83"/>
-    </row>
-    <row r="167" spans="18:42">
+      <c r="AQ166" s="83"/>
+    </row>
+    <row r="167" spans="18:43">
       <c r="R167" s="66"/>
-      <c r="AK167" s="83"/>
+      <c r="W167" s="66"/>
       <c r="AL167" s="83"/>
       <c r="AM167" s="83"/>
       <c r="AN167" s="83"/>
       <c r="AO167" s="83"/>
       <c r="AP167" s="83"/>
-    </row>
-    <row r="168" spans="18:42">
+      <c r="AQ167" s="83"/>
+    </row>
+    <row r="168" spans="18:43">
       <c r="R168" s="120"/>
-      <c r="AK168" s="83"/>
+      <c r="W168" s="120"/>
       <c r="AL168" s="83"/>
       <c r="AM168" s="83"/>
       <c r="AN168" s="83"/>
       <c r="AO168" s="83"/>
       <c r="AP168" s="83"/>
-    </row>
-    <row r="169" spans="18:42">
+      <c r="AQ168" s="83"/>
+    </row>
+    <row r="169" spans="18:43">
       <c r="R169" s="120"/>
-      <c r="AK169" s="83"/>
+      <c r="W169" s="120"/>
       <c r="AL169" s="83"/>
       <c r="AM169" s="83"/>
       <c r="AN169" s="83"/>
       <c r="AO169" s="83"/>
       <c r="AP169" s="83"/>
-    </row>
-    <row r="170" spans="18:42">
+      <c r="AQ169" s="83"/>
+    </row>
+    <row r="170" spans="18:43">
       <c r="R170" s="120"/>
-      <c r="AK170" s="83"/>
+      <c r="W170" s="120"/>
       <c r="AL170" s="83"/>
       <c r="AM170" s="83"/>
       <c r="AN170" s="83"/>
       <c r="AO170" s="83"/>
       <c r="AP170" s="83"/>
-    </row>
-    <row r="171" spans="18:42">
+      <c r="AQ170" s="83"/>
+    </row>
+    <row r="171" spans="18:43">
       <c r="R171" s="120"/>
-      <c r="AK171" s="83"/>
+      <c r="W171" s="120"/>
       <c r="AL171" s="83"/>
       <c r="AM171" s="83"/>
       <c r="AN171" s="83"/>
       <c r="AO171" s="83"/>
       <c r="AP171" s="83"/>
-    </row>
-    <row r="172" spans="18:42">
+      <c r="AQ171" s="83"/>
+    </row>
+    <row r="172" spans="18:43">
       <c r="R172" s="120"/>
-      <c r="AK172" s="83"/>
+      <c r="W172" s="120"/>
       <c r="AL172" s="83"/>
       <c r="AM172" s="83"/>
       <c r="AN172" s="83"/>
       <c r="AO172" s="83"/>
       <c r="AP172" s="83"/>
-    </row>
-    <row r="173" spans="18:42">
+      <c r="AQ172" s="83"/>
+    </row>
+    <row r="173" spans="18:43">
       <c r="R173" s="120"/>
-      <c r="AK173" s="83"/>
+      <c r="W173" s="120"/>
       <c r="AL173" s="83"/>
       <c r="AM173" s="83"/>
       <c r="AN173" s="83"/>
       <c r="AO173" s="83"/>
       <c r="AP173" s="83"/>
-    </row>
-    <row r="174" spans="18:42">
+      <c r="AQ173" s="83"/>
+    </row>
+    <row r="174" spans="18:43">
       <c r="R174" s="120"/>
-      <c r="AK174" s="83"/>
+      <c r="W174" s="120"/>
       <c r="AL174" s="83"/>
       <c r="AM174" s="83"/>
       <c r="AN174" s="83"/>
       <c r="AO174" s="83"/>
       <c r="AP174" s="83"/>
-    </row>
-    <row r="175" spans="18:42">
+      <c r="AQ174" s="83"/>
+    </row>
+    <row r="175" spans="18:43">
       <c r="R175" s="120"/>
-      <c r="AK175" s="83"/>
+      <c r="W175" s="120"/>
       <c r="AL175" s="83"/>
       <c r="AM175" s="83"/>
       <c r="AN175" s="83"/>
       <c r="AO175" s="83"/>
       <c r="AP175" s="83"/>
-    </row>
-    <row r="176" spans="18:42">
+      <c r="AQ175" s="83"/>
+    </row>
+    <row r="176" spans="18:43">
       <c r="R176" s="120"/>
-      <c r="AK176" s="83"/>
+      <c r="W176" s="120"/>
       <c r="AL176" s="83"/>
       <c r="AM176" s="83"/>
       <c r="AN176" s="83"/>
       <c r="AO176" s="83"/>
       <c r="AP176" s="83"/>
-    </row>
-    <row r="177" spans="18:42">
+      <c r="AQ176" s="83"/>
+    </row>
+    <row r="177" spans="18:43">
       <c r="R177" s="120"/>
-      <c r="AK177" s="83"/>
+      <c r="W177" s="120"/>
       <c r="AL177" s="83"/>
       <c r="AM177" s="83"/>
       <c r="AN177" s="83"/>
       <c r="AO177" s="83"/>
       <c r="AP177" s="83"/>
-    </row>
-    <row r="178" spans="18:42">
+      <c r="AQ177" s="83"/>
+    </row>
+    <row r="178" spans="18:43">
       <c r="R178" s="120"/>
-      <c r="AK178" s="83"/>
+      <c r="W178" s="120"/>
       <c r="AL178" s="83"/>
       <c r="AM178" s="83"/>
       <c r="AN178" s="83"/>
       <c r="AO178" s="83"/>
       <c r="AP178" s="83"/>
-    </row>
-    <row r="179" spans="18:42">
+      <c r="AQ178" s="83"/>
+    </row>
+    <row r="179" spans="18:43">
       <c r="R179" s="66"/>
-      <c r="AK179" s="83"/>
+      <c r="W179" s="66"/>
       <c r="AL179" s="83"/>
       <c r="AM179" s="83"/>
       <c r="AN179" s="83"/>
       <c r="AO179" s="83"/>
       <c r="AP179" s="83"/>
-    </row>
-    <row r="180" spans="18:42">
+      <c r="AQ179" s="83"/>
+    </row>
+    <row r="180" spans="18:43">
       <c r="R180" s="62"/>
-      <c r="AK180" s="83"/>
+      <c r="W180" s="62"/>
       <c r="AL180" s="83"/>
       <c r="AM180" s="83"/>
       <c r="AN180" s="83"/>
       <c r="AO180" s="83"/>
       <c r="AP180" s="83"/>
-    </row>
-    <row r="181" spans="18:42">
+      <c r="AQ180" s="83"/>
+    </row>
+    <row r="181" spans="18:43">
       <c r="R181" s="62"/>
-      <c r="AK181" s="83"/>
+      <c r="W181" s="62"/>
       <c r="AL181" s="83"/>
       <c r="AM181" s="83"/>
       <c r="AN181" s="83"/>
       <c r="AO181" s="83"/>
       <c r="AP181" s="83"/>
-    </row>
-    <row r="182" spans="18:42">
+      <c r="AQ181" s="83"/>
+    </row>
+    <row r="182" spans="18:43">
       <c r="R182" s="120"/>
-      <c r="AK182" s="83"/>
+      <c r="W182" s="120"/>
       <c r="AL182" s="83"/>
       <c r="AM182" s="83"/>
       <c r="AN182" s="83"/>
       <c r="AO182" s="83"/>
       <c r="AP182" s="83"/>
-    </row>
-    <row r="183" spans="18:42">
+      <c r="AQ182" s="83"/>
+    </row>
+    <row r="183" spans="18:43">
       <c r="R183" s="62"/>
-      <c r="AK183" s="83"/>
+      <c r="W183" s="62"/>
       <c r="AL183" s="83"/>
       <c r="AM183" s="83"/>
       <c r="AN183" s="83"/>
       <c r="AO183" s="83"/>
       <c r="AP183" s="83"/>
-    </row>
-    <row r="184" spans="18:42">
+      <c r="AQ183" s="83"/>
+    </row>
+    <row r="184" spans="18:43">
       <c r="R184" s="62"/>
-      <c r="AK184" s="83"/>
+      <c r="W184" s="62"/>
       <c r="AL184" s="83"/>
       <c r="AM184" s="83"/>
       <c r="AN184" s="83"/>
       <c r="AO184" s="83"/>
       <c r="AP184" s="83"/>
-    </row>
-    <row r="185" spans="18:42">
+      <c r="AQ184" s="83"/>
+    </row>
+    <row r="185" spans="18:43">
       <c r="R185" s="62"/>
-      <c r="AK185" s="83"/>
+      <c r="W185" s="62"/>
       <c r="AL185" s="83"/>
       <c r="AM185" s="83"/>
       <c r="AN185" s="83"/>
       <c r="AO185" s="83"/>
       <c r="AP185" s="83"/>
-    </row>
-    <row r="186" spans="18:42">
+      <c r="AQ185" s="83"/>
+    </row>
+    <row r="186" spans="18:43">
       <c r="R186" s="62"/>
-      <c r="AK186" s="83"/>
+      <c r="W186" s="62"/>
       <c r="AL186" s="83"/>
       <c r="AM186" s="83"/>
       <c r="AN186" s="83"/>
       <c r="AO186" s="83"/>
       <c r="AP186" s="83"/>
-    </row>
-    <row r="187" spans="18:42">
+      <c r="AQ186" s="83"/>
+    </row>
+    <row r="187" spans="18:43">
       <c r="R187" s="62"/>
-      <c r="AK187" s="83"/>
+      <c r="W187" s="62"/>
       <c r="AL187" s="83"/>
       <c r="AM187" s="83"/>
       <c r="AN187" s="83"/>
       <c r="AO187" s="83"/>
       <c r="AP187" s="83"/>
-    </row>
-    <row r="188" spans="18:42">
+      <c r="AQ187" s="83"/>
+    </row>
+    <row r="188" spans="18:43">
       <c r="R188" s="62"/>
-      <c r="AK188" s="83"/>
+      <c r="W188" s="62"/>
       <c r="AL188" s="83"/>
       <c r="AM188" s="83"/>
       <c r="AN188" s="83"/>
       <c r="AO188" s="83"/>
       <c r="AP188" s="83"/>
-    </row>
-    <row r="189" spans="18:42">
+      <c r="AQ188" s="83"/>
+    </row>
+    <row r="189" spans="18:43">
       <c r="R189" s="62"/>
-      <c r="AK189" s="83"/>
+      <c r="W189" s="62"/>
       <c r="AL189" s="83"/>
       <c r="AM189" s="83"/>
       <c r="AN189" s="83"/>
       <c r="AO189" s="83"/>
       <c r="AP189" s="83"/>
-    </row>
-    <row r="190" spans="18:42">
+      <c r="AQ189" s="83"/>
+    </row>
+    <row r="190" spans="18:43">
       <c r="R190" s="62"/>
-      <c r="AK190" s="83"/>
+      <c r="W190" s="62"/>
       <c r="AL190" s="83"/>
       <c r="AM190" s="83"/>
       <c r="AN190" s="83"/>
       <c r="AO190" s="83"/>
       <c r="AP190" s="83"/>
-    </row>
-    <row r="191" spans="18:42">
+      <c r="AQ190" s="83"/>
+    </row>
+    <row r="191" spans="18:43">
       <c r="R191" s="62"/>
-      <c r="AK191" s="83"/>
+      <c r="W191" s="62"/>
       <c r="AL191" s="83"/>
       <c r="AM191" s="83"/>
       <c r="AN191" s="83"/>
       <c r="AO191" s="83"/>
       <c r="AP191" s="83"/>
-    </row>
-    <row r="192" spans="18:42">
+      <c r="AQ191" s="83"/>
+    </row>
+    <row r="192" spans="18:43">
       <c r="R192" s="62"/>
-      <c r="AK192" s="83"/>
+      <c r="W192" s="62"/>
       <c r="AL192" s="83"/>
       <c r="AM192" s="83"/>
       <c r="AN192" s="83"/>
       <c r="AO192" s="83"/>
       <c r="AP192" s="83"/>
-    </row>
-    <row r="193" spans="18:42">
+      <c r="AQ192" s="83"/>
+    </row>
+    <row r="193" spans="18:43">
       <c r="R193" s="62"/>
-      <c r="AK193" s="83"/>
+      <c r="W193" s="62"/>
       <c r="AL193" s="83"/>
       <c r="AM193" s="83"/>
       <c r="AN193" s="83"/>
       <c r="AO193" s="83"/>
       <c r="AP193" s="83"/>
-    </row>
-    <row r="194" spans="18:42">
+      <c r="AQ193" s="83"/>
+    </row>
+    <row r="194" spans="18:43">
       <c r="R194" s="62"/>
-      <c r="AK194" s="83"/>
+      <c r="W194" s="62"/>
       <c r="AL194" s="83"/>
       <c r="AM194" s="83"/>
       <c r="AN194" s="83"/>
       <c r="AO194" s="83"/>
       <c r="AP194" s="83"/>
-    </row>
-    <row r="195" spans="18:42">
+      <c r="AQ194" s="83"/>
+    </row>
+    <row r="195" spans="18:43">
       <c r="R195" s="62"/>
-      <c r="AK195" s="83"/>
+      <c r="W195" s="62"/>
       <c r="AL195" s="83"/>
       <c r="AM195" s="83"/>
       <c r="AN195" s="83"/>
       <c r="AO195" s="83"/>
       <c r="AP195" s="83"/>
-    </row>
-    <row r="196" spans="18:42">
+      <c r="AQ195" s="83"/>
+    </row>
+    <row r="196" spans="18:43">
       <c r="R196" s="62"/>
-      <c r="AK196" s="83"/>
+      <c r="W196" s="62"/>
       <c r="AL196" s="83"/>
       <c r="AM196" s="83"/>
       <c r="AN196" s="83"/>
       <c r="AO196" s="83"/>
       <c r="AP196" s="83"/>
-    </row>
-    <row r="197" spans="18:42">
+      <c r="AQ196" s="83"/>
+    </row>
+    <row r="197" spans="18:43">
       <c r="R197" s="62"/>
-      <c r="AK197" s="83"/>
+      <c r="W197" s="62"/>
       <c r="AL197" s="83"/>
       <c r="AM197" s="83"/>
       <c r="AN197" s="83"/>
       <c r="AO197" s="83"/>
       <c r="AP197" s="83"/>
-    </row>
-    <row r="198" spans="18:42">
+      <c r="AQ197" s="83"/>
+    </row>
+    <row r="198" spans="18:43">
       <c r="R198" s="62"/>
-      <c r="AK198" s="83"/>
+      <c r="W198" s="62"/>
       <c r="AL198" s="83"/>
       <c r="AM198" s="83"/>
       <c r="AN198" s="83"/>
       <c r="AO198" s="83"/>
       <c r="AP198" s="83"/>
-    </row>
-    <row r="199" spans="18:42">
+      <c r="AQ198" s="83"/>
+    </row>
+    <row r="199" spans="18:43">
       <c r="R199" s="62"/>
-      <c r="AK199" s="83"/>
+      <c r="W199" s="62"/>
       <c r="AL199" s="83"/>
       <c r="AM199" s="83"/>
       <c r="AN199" s="83"/>
       <c r="AO199" s="83"/>
       <c r="AP199" s="83"/>
-    </row>
-    <row r="200" spans="18:42">
+      <c r="AQ199" s="83"/>
+    </row>
+    <row r="200" spans="18:43">
       <c r="R200" s="62"/>
-      <c r="AK200" s="83"/>
+      <c r="W200" s="62"/>
       <c r="AL200" s="83"/>
       <c r="AM200" s="83"/>
       <c r="AN200" s="83"/>
       <c r="AO200" s="83"/>
       <c r="AP200" s="83"/>
-    </row>
-    <row r="201" spans="18:42">
+      <c r="AQ200" s="83"/>
+    </row>
+    <row r="201" spans="18:43">
       <c r="R201" s="66"/>
-      <c r="AK201" s="83"/>
+      <c r="W201" s="66"/>
       <c r="AL201" s="83"/>
       <c r="AM201" s="83"/>
       <c r="AN201" s="83"/>
       <c r="AO201" s="83"/>
       <c r="AP201" s="83"/>
-    </row>
-    <row r="202" spans="18:42">
+      <c r="AQ201" s="83"/>
+    </row>
+    <row r="202" spans="18:43">
       <c r="R202" s="62"/>
-      <c r="AK202" s="83"/>
+      <c r="W202" s="62"/>
       <c r="AL202" s="83"/>
       <c r="AM202" s="83"/>
-    </row>
-    <row r="203" spans="18:42">
+      <c r="AN202" s="83"/>
+    </row>
+    <row r="203" spans="18:43">
       <c r="R203" s="62"/>
-      <c r="AK203" s="83"/>
+      <c r="W203" s="62"/>
       <c r="AL203" s="83"/>
       <c r="AM203" s="83"/>
-    </row>
-    <row r="204" spans="18:42">
+      <c r="AN203" s="83"/>
+    </row>
+    <row r="204" spans="18:43">
       <c r="R204" s="62"/>
-      <c r="AK204" s="83"/>
+      <c r="W204" s="62"/>
       <c r="AL204" s="83"/>
       <c r="AM204" s="83"/>
-    </row>
-    <row r="205" spans="18:42">
+      <c r="AN204" s="83"/>
+    </row>
+    <row r="205" spans="18:43">
       <c r="R205" s="62"/>
-      <c r="AK205" s="83"/>
+      <c r="W205" s="62"/>
       <c r="AL205" s="83"/>
       <c r="AM205" s="83"/>
-    </row>
-    <row r="206" spans="18:42">
+      <c r="AN205" s="83"/>
+    </row>
+    <row r="206" spans="18:43">
       <c r="R206" s="62"/>
-      <c r="AK206" s="83"/>
+      <c r="W206" s="62"/>
       <c r="AL206" s="83"/>
       <c r="AM206" s="83"/>
-    </row>
-    <row r="207" spans="18:42">
+      <c r="AN206" s="83"/>
+    </row>
+    <row r="207" spans="18:43">
       <c r="R207" s="62"/>
-      <c r="AK207" s="83"/>
+      <c r="W207" s="62"/>
       <c r="AL207" s="83"/>
       <c r="AM207" s="83"/>
-    </row>
-    <row r="208" spans="18:42">
+      <c r="AN207" s="83"/>
+    </row>
+    <row r="208" spans="18:43">
       <c r="R208" s="62"/>
-      <c r="AK208" s="83"/>
+      <c r="W208" s="62"/>
       <c r="AL208" s="83"/>
       <c r="AM208" s="83"/>
-    </row>
-    <row r="209" spans="18:39">
+      <c r="AN208" s="83"/>
+    </row>
+    <row r="209" spans="18:40">
       <c r="R209" s="66"/>
-      <c r="AK209" s="83"/>
+      <c r="W209" s="66"/>
       <c r="AL209" s="83"/>
       <c r="AM209" s="83"/>
-    </row>
-    <row r="210" spans="18:39">
+      <c r="AN209" s="83"/>
+    </row>
+    <row r="210" spans="18:40">
       <c r="R210" s="66"/>
-      <c r="AK210" s="83"/>
+      <c r="W210" s="66"/>
       <c r="AL210" s="83"/>
       <c r="AM210" s="83"/>
-    </row>
-    <row r="211" spans="18:39">
+      <c r="AN210" s="83"/>
+    </row>
+    <row r="211" spans="18:40">
       <c r="R211" s="66"/>
-      <c r="AK211" s="83"/>
+      <c r="W211" s="66"/>
       <c r="AL211" s="83"/>
       <c r="AM211" s="83"/>
-    </row>
-    <row r="212" spans="18:39">
+      <c r="AN211" s="83"/>
+    </row>
+    <row r="212" spans="18:40">
       <c r="R212" s="66"/>
-      <c r="AK212" s="83"/>
+      <c r="W212" s="66"/>
       <c r="AL212" s="83"/>
       <c r="AM212" s="83"/>
-    </row>
-    <row r="213" spans="18:39">
+      <c r="AN212" s="83"/>
+    </row>
+    <row r="213" spans="18:40">
       <c r="R213" s="66"/>
-      <c r="AK213" s="83"/>
+      <c r="W213" s="66"/>
       <c r="AL213" s="83"/>
       <c r="AM213" s="83"/>
-    </row>
-    <row r="214" spans="18:39">
+      <c r="AN213" s="83"/>
+    </row>
+    <row r="214" spans="18:40">
       <c r="R214" s="66"/>
-      <c r="AK214" s="83"/>
+      <c r="W214" s="66"/>
       <c r="AL214" s="83"/>
       <c r="AM214" s="83"/>
-    </row>
-    <row r="215" spans="18:39">
+      <c r="AN214" s="83"/>
+    </row>
+    <row r="215" spans="18:40">
       <c r="R215" s="62"/>
-      <c r="AK215" s="83"/>
+      <c r="W215" s="62"/>
       <c r="AL215" s="83"/>
       <c r="AM215" s="83"/>
-    </row>
-    <row r="216" spans="18:39">
+      <c r="AN215" s="83"/>
+    </row>
+    <row r="216" spans="18:40">
       <c r="R216" s="62"/>
-      <c r="AK216" s="83"/>
+      <c r="W216" s="62"/>
       <c r="AL216" s="83"/>
       <c r="AM216" s="83"/>
-    </row>
-    <row r="217" spans="18:39">
+      <c r="AN216" s="83"/>
+    </row>
+    <row r="217" spans="18:40">
       <c r="R217" s="62"/>
-      <c r="AK217" s="83"/>
+      <c r="W217" s="62"/>
       <c r="AL217" s="83"/>
       <c r="AM217" s="83"/>
-    </row>
-    <row r="218" spans="18:39">
+      <c r="AN217" s="83"/>
+    </row>
+    <row r="218" spans="18:40">
       <c r="R218" s="62"/>
-      <c r="AK218" s="83"/>
+      <c r="W218" s="62"/>
       <c r="AL218" s="83"/>
       <c r="AM218" s="83"/>
-    </row>
-    <row r="219" spans="18:39">
+      <c r="AN218" s="83"/>
+    </row>
+    <row r="219" spans="18:40">
       <c r="R219" s="62"/>
-      <c r="AK219" s="83"/>
+      <c r="W219" s="62"/>
       <c r="AL219" s="83"/>
       <c r="AM219" s="83"/>
-    </row>
-    <row r="220" spans="18:39">
+      <c r="AN219" s="83"/>
+    </row>
+    <row r="220" spans="18:40">
       <c r="R220" s="62"/>
-      <c r="AK220" s="83"/>
+      <c r="W220" s="62"/>
       <c r="AL220" s="83"/>
       <c r="AM220" s="83"/>
-    </row>
-    <row r="221" spans="18:39">
+      <c r="AN220" s="83"/>
+    </row>
+    <row r="221" spans="18:40">
       <c r="R221" s="66"/>
-      <c r="AK221" s="83"/>
+      <c r="W221" s="66"/>
       <c r="AL221" s="83"/>
       <c r="AM221" s="83"/>
-    </row>
-    <row r="222" spans="18:39">
+      <c r="AN221" s="83"/>
+    </row>
+    <row r="222" spans="18:40">
       <c r="R222" s="66"/>
-      <c r="AK222" s="83"/>
+      <c r="W222" s="66"/>
       <c r="AL222" s="83"/>
       <c r="AM222" s="83"/>
-    </row>
-    <row r="223" spans="18:39">
+      <c r="AN222" s="83"/>
+    </row>
+    <row r="223" spans="18:40">
       <c r="R223" s="66"/>
-      <c r="AK223" s="83"/>
+      <c r="W223" s="66"/>
       <c r="AL223" s="83"/>
       <c r="AM223" s="83"/>
-    </row>
-    <row r="224" spans="18:39">
+      <c r="AN223" s="83"/>
+    </row>
+    <row r="224" spans="18:40">
       <c r="R224" s="66"/>
-      <c r="AK224" s="83"/>
+      <c r="W224" s="66"/>
       <c r="AL224" s="83"/>
       <c r="AM224" s="83"/>
-    </row>
-    <row r="225" spans="15:39">
+      <c r="AN224" s="83"/>
+    </row>
+    <row r="225" spans="15:40">
       <c r="R225" s="66"/>
-      <c r="AK225" s="83"/>
+      <c r="W225" s="66"/>
       <c r="AL225" s="83"/>
       <c r="AM225" s="83"/>
-    </row>
-    <row r="226" spans="15:39">
+      <c r="AN225" s="83"/>
+    </row>
+    <row r="226" spans="15:40">
       <c r="R226" s="66"/>
-      <c r="AK226" s="83"/>
+      <c r="W226" s="66"/>
       <c r="AL226" s="83"/>
       <c r="AM226" s="83"/>
-    </row>
-    <row r="227" spans="15:39">
+      <c r="AN226" s="83"/>
+    </row>
+    <row r="227" spans="15:40">
       <c r="R227" s="66"/>
-      <c r="AK227" s="83"/>
+      <c r="W227" s="66"/>
       <c r="AL227" s="83"/>
       <c r="AM227" s="83"/>
-    </row>
-    <row r="228" spans="15:39">
+      <c r="AN227" s="83"/>
+    </row>
+    <row r="228" spans="15:40">
       <c r="R228" s="66"/>
-      <c r="AK228" s="83"/>
+      <c r="W228" s="66"/>
       <c r="AL228" s="83"/>
       <c r="AM228" s="83"/>
-    </row>
-    <row r="229" spans="15:39">
+      <c r="AN228" s="83"/>
+    </row>
+    <row r="229" spans="15:40">
       <c r="R229" s="66"/>
-      <c r="AK229" s="83"/>
+      <c r="W229" s="66"/>
       <c r="AL229" s="83"/>
       <c r="AM229" s="83"/>
-    </row>
-    <row r="230" spans="15:39">
+      <c r="AN229" s="83"/>
+    </row>
+    <row r="230" spans="15:40">
       <c r="R230" s="66"/>
-      <c r="AK230" s="83"/>
+      <c r="W230" s="66"/>
       <c r="AL230" s="83"/>
       <c r="AM230" s="83"/>
-    </row>
-    <row r="231" spans="15:39">
+      <c r="AN230" s="83"/>
+    </row>
+    <row r="231" spans="15:40">
       <c r="R231" s="66"/>
-      <c r="AK231" s="83"/>
+      <c r="W231" s="66"/>
       <c r="AL231" s="83"/>
       <c r="AM231" s="83"/>
-    </row>
-    <row r="232" spans="15:39">
+      <c r="AN231" s="83"/>
+    </row>
+    <row r="232" spans="15:40">
       <c r="R232" s="66"/>
-      <c r="AK232" s="83"/>
+      <c r="W232" s="66"/>
       <c r="AL232" s="83"/>
       <c r="AM232" s="83"/>
-    </row>
-    <row r="233" spans="15:39">
+      <c r="AN232" s="83"/>
+    </row>
+    <row r="233" spans="15:40">
       <c r="R233" s="66"/>
-      <c r="AK233" s="83"/>
+      <c r="W233" s="66"/>
       <c r="AL233" s="83"/>
       <c r="AM233" s="83"/>
-    </row>
-    <row r="234" spans="15:39">
+      <c r="AN233" s="83"/>
+    </row>
+    <row r="234" spans="15:40">
       <c r="R234" s="66"/>
-      <c r="AK234" s="83"/>
+      <c r="W234" s="66"/>
       <c r="AL234" s="83"/>
       <c r="AM234" s="83"/>
-    </row>
-    <row r="235" spans="15:39">
+      <c r="AN234" s="83"/>
+    </row>
+    <row r="235" spans="15:40">
       <c r="O235" s="37"/>
       <c r="P235" s="37"/>
       <c r="Q235" s="37"/>
       <c r="R235" s="66"/>
       <c r="S235" s="37"/>
       <c r="T235" s="37"/>
-      <c r="AK235" s="83"/>
+      <c r="W235" s="66"/>
       <c r="AL235" s="83"/>
       <c r="AM235" s="83"/>
-    </row>
-    <row r="236" spans="15:39">
+      <c r="AN235" s="83"/>
+    </row>
+    <row r="236" spans="15:40">
       <c r="O236" s="37"/>
       <c r="P236" s="37"/>
       <c r="Q236" s="37"/>
       <c r="R236" s="66"/>
       <c r="S236" s="37"/>
       <c r="T236" s="37"/>
-      <c r="AK236" s="83"/>
+      <c r="W236" s="66"/>
       <c r="AL236" s="83"/>
       <c r="AM236" s="83"/>
-    </row>
-    <row r="237" spans="15:39">
+      <c r="AN236" s="83"/>
+    </row>
+    <row r="237" spans="15:40">
       <c r="O237" s="37"/>
       <c r="P237" s="37"/>
       <c r="Q237" s="37"/>
       <c r="R237" s="66"/>
       <c r="S237" s="37"/>
       <c r="T237" s="37"/>
-      <c r="AK237" s="83"/>
+      <c r="W237" s="66"/>
       <c r="AL237" s="83"/>
       <c r="AM237" s="83"/>
-    </row>
-    <row r="238" spans="15:39">
+      <c r="AN237" s="83"/>
+    </row>
+    <row r="238" spans="15:40">
       <c r="O238" s="37"/>
       <c r="P238" s="37"/>
       <c r="Q238" s="37"/>
       <c r="R238" s="66"/>
       <c r="S238" s="37"/>
       <c r="T238" s="37"/>
-    </row>
-    <row r="239" spans="15:39">
+      <c r="W238" s="66"/>
+    </row>
+    <row r="239" spans="15:40">
       <c r="O239" s="37"/>
       <c r="P239" s="37"/>
       <c r="Q239" s="37"/>
       <c r="R239" s="66"/>
       <c r="S239" s="37"/>
       <c r="T239" s="37"/>
-    </row>
-    <row r="240" spans="15:39">
+      <c r="W239" s="66"/>
+    </row>
+    <row r="240" spans="15:40">
       <c r="O240" s="37"/>
       <c r="P240" s="37"/>
       <c r="Q240" s="37"/>
       <c r="R240" s="66"/>
       <c r="S240" s="37"/>
       <c r="T240" s="37"/>
-    </row>
-    <row r="241" spans="15:20">
+      <c r="W240" s="66"/>
+    </row>
+    <row r="241" spans="15:23">
       <c r="O241" s="37"/>
       <c r="P241" s="37"/>
       <c r="Q241" s="37"/>
       <c r="R241" s="66"/>
       <c r="S241" s="37"/>
       <c r="T241" s="37"/>
-    </row>
-    <row r="242" spans="15:20">
+      <c r="W241" s="66"/>
+    </row>
+    <row r="242" spans="15:23">
       <c r="O242" s="37"/>
       <c r="P242" s="37"/>
       <c r="Q242" s="37"/>
       <c r="R242" s="66"/>
       <c r="S242" s="37"/>
       <c r="T242" s="37"/>
-    </row>
-    <row r="243" spans="15:20">
+      <c r="W242" s="66"/>
+    </row>
+    <row r="243" spans="15:23">
       <c r="O243" s="37"/>
       <c r="P243" s="37"/>
       <c r="Q243" s="37"/>
       <c r="R243" s="66"/>
       <c r="S243" s="37"/>
       <c r="T243" s="37"/>
-    </row>
-    <row r="244" spans="15:20">
+      <c r="W243" s="66"/>
+    </row>
+    <row r="244" spans="15:23">
       <c r="O244" s="37"/>
       <c r="P244" s="37"/>
       <c r="Q244" s="37"/>
       <c r="R244" s="66"/>
       <c r="S244" s="37"/>
       <c r="T244" s="37"/>
-    </row>
-    <row r="245" spans="15:20">
+      <c r="W244" s="66"/>
+    </row>
+    <row r="245" spans="15:23">
       <c r="O245" s="37"/>
       <c r="P245" s="37"/>
       <c r="Q245" s="37"/>
       <c r="R245" s="66"/>
       <c r="S245" s="37"/>
       <c r="T245" s="37"/>
-    </row>
-    <row r="246" spans="15:20">
+      <c r="W245" s="66"/>
+    </row>
+    <row r="246" spans="15:23">
       <c r="O246" s="37"/>
       <c r="P246" s="37"/>
       <c r="Q246" s="37"/>
       <c r="R246" s="66"/>
       <c r="S246" s="37"/>
       <c r="T246" s="37"/>
-    </row>
-    <row r="247" spans="15:20">
+      <c r="W246" s="66"/>
+    </row>
+    <row r="247" spans="15:23">
       <c r="O247" s="37"/>
       <c r="P247" s="37"/>
       <c r="Q247" s="37"/>
       <c r="R247" s="66"/>
       <c r="S247" s="37"/>
       <c r="T247" s="37"/>
-    </row>
-    <row r="248" spans="15:20">
+      <c r="W247" s="66"/>
+    </row>
+    <row r="248" spans="15:23">
       <c r="O248" s="37"/>
       <c r="P248" s="37"/>
       <c r="Q248" s="37"/>
       <c r="R248" s="66"/>
       <c r="S248" s="37"/>
       <c r="T248" s="37"/>
-    </row>
-    <row r="249" spans="15:20">
+      <c r="W248" s="66"/>
+    </row>
+    <row r="249" spans="15:23">
       <c r="O249" s="37"/>
       <c r="P249" s="37"/>
       <c r="Q249" s="37"/>
       <c r="R249" s="66"/>
       <c r="S249" s="37"/>
       <c r="T249" s="37"/>
-    </row>
-    <row r="250" spans="15:20">
+      <c r="W249" s="66"/>
+    </row>
+    <row r="250" spans="15:23">
       <c r="O250" s="37"/>
       <c r="P250" s="37"/>
       <c r="Q250" s="37"/>
       <c r="R250" s="66"/>
       <c r="S250" s="37"/>
       <c r="T250" s="37"/>
-    </row>
-    <row r="251" spans="15:20">
+      <c r="W250" s="66"/>
+    </row>
+    <row r="251" spans="15:23">
       <c r="O251" s="37"/>
       <c r="P251" s="37"/>
       <c r="Q251" s="37"/>
       <c r="R251" s="66"/>
       <c r="S251" s="37"/>
       <c r="T251" s="37"/>
-    </row>
-    <row r="252" spans="15:20">
+      <c r="W251" s="66"/>
+    </row>
+    <row r="252" spans="15:23">
       <c r="O252" s="37"/>
       <c r="P252" s="37"/>
       <c r="Q252" s="37"/>
       <c r="R252" s="66"/>
       <c r="S252" s="37"/>
       <c r="T252" s="37"/>
-    </row>
-    <row r="253" spans="15:20">
+      <c r="W252" s="66"/>
+    </row>
+    <row r="253" spans="15:23">
       <c r="O253" s="37"/>
       <c r="P253" s="37"/>
       <c r="Q253" s="37"/>
       <c r="R253" s="66"/>
       <c r="S253" s="37"/>
       <c r="T253" s="37"/>
-    </row>
-    <row r="254" spans="15:20">
+      <c r="W253" s="66"/>
+    </row>
+    <row r="254" spans="15:23">
       <c r="O254" s="37"/>
       <c r="P254" s="37"/>
       <c r="Q254" s="37"/>
       <c r="R254" s="66"/>
       <c r="S254" s="37"/>
       <c r="T254" s="37"/>
-    </row>
-    <row r="255" spans="15:20">
+      <c r="W254" s="66"/>
+    </row>
+    <row r="255" spans="15:23">
       <c r="O255" s="37"/>
       <c r="P255" s="37"/>
       <c r="Q255" s="37"/>
       <c r="R255" s="66"/>
       <c r="S255" s="37"/>
       <c r="T255" s="37"/>
-    </row>
-    <row r="256" spans="15:20">
+      <c r="W255" s="66"/>
+    </row>
+    <row r="256" spans="15:23">
       <c r="O256" s="37"/>
       <c r="P256" s="37"/>
       <c r="Q256" s="37"/>
       <c r="R256" s="66"/>
       <c r="S256" s="37"/>
       <c r="T256" s="37"/>
-    </row>
-    <row r="257" spans="15:20">
+      <c r="W256" s="66"/>
+    </row>
+    <row r="257" spans="15:23">
       <c r="O257" s="37"/>
       <c r="P257" s="37"/>
       <c r="Q257" s="37"/>
       <c r="R257" s="66"/>
       <c r="S257" s="37"/>
       <c r="T257" s="37"/>
-    </row>
-    <row r="258" spans="15:20">
+      <c r="W257" s="66"/>
+    </row>
+    <row r="258" spans="15:23">
       <c r="O258" s="37"/>
       <c r="P258" s="37"/>
       <c r="Q258" s="37"/>
       <c r="R258" s="66"/>
       <c r="S258" s="37"/>
       <c r="T258" s="37"/>
-    </row>
-    <row r="259" spans="15:20">
+      <c r="W258" s="66"/>
+    </row>
+    <row r="259" spans="15:23">
       <c r="O259" s="37"/>
       <c r="P259" s="37"/>
       <c r="Q259" s="37"/>
       <c r="R259" s="66"/>
       <c r="S259" s="37"/>
       <c r="T259" s="37"/>
-    </row>
-    <row r="260" spans="15:20">
+      <c r="W259" s="66"/>
+    </row>
+    <row r="260" spans="15:23">
       <c r="O260" s="37"/>
       <c r="P260" s="37"/>
       <c r="Q260" s="37"/>
       <c r="R260" s="66"/>
       <c r="S260" s="37"/>
       <c r="T260" s="37"/>
-    </row>
-    <row r="261" spans="15:20">
+      <c r="W260" s="66"/>
+    </row>
+    <row r="261" spans="15:23">
       <c r="R261" s="62"/>
-    </row>
-    <row r="262" spans="15:20">
+      <c r="W261" s="62"/>
+    </row>
+    <row r="262" spans="15:23">
       <c r="R262" s="62"/>
-    </row>
-    <row r="263" spans="15:20">
+      <c r="W262" s="62"/>
+    </row>
+    <row r="263" spans="15:23">
       <c r="R263" s="62"/>
-    </row>
-    <row r="264" spans="15:20">
+      <c r="W263" s="62"/>
+    </row>
+    <row r="264" spans="15:23">
       <c r="R264" s="62"/>
-    </row>
-    <row r="265" spans="15:20">
+      <c r="W264" s="62"/>
+    </row>
+    <row r="265" spans="15:23">
       <c r="R265" s="62"/>
-    </row>
-    <row r="266" spans="15:20">
+      <c r="W265" s="62"/>
+    </row>
+    <row r="266" spans="15:23">
       <c r="R266" s="62"/>
-    </row>
-    <row r="267" spans="15:20">
+      <c r="W266" s="62"/>
+    </row>
+    <row r="267" spans="15:23">
       <c r="R267" s="62"/>
-    </row>
-    <row r="268" spans="15:20">
+      <c r="W267" s="62"/>
+    </row>
+    <row r="268" spans="15:23">
       <c r="R268" s="62"/>
-    </row>
-    <row r="269" spans="15:20">
+      <c r="W268" s="62"/>
+    </row>
+    <row r="269" spans="15:23">
       <c r="R269" s="62"/>
-    </row>
-    <row r="270" spans="15:20">
+      <c r="W269" s="62"/>
+    </row>
+    <row r="270" spans="15:23">
       <c r="R270" s="62"/>
-    </row>
-    <row r="271" spans="15:20">
+      <c r="W270" s="62"/>
+    </row>
+    <row r="271" spans="15:23">
       <c r="R271" s="62"/>
-    </row>
-    <row r="272" spans="15:20">
+      <c r="W271" s="62"/>
+    </row>
+    <row r="272" spans="15:23">
       <c r="R272" s="62"/>
-    </row>
-    <row r="273" spans="18:18">
+      <c r="W272" s="62"/>
+    </row>
+    <row r="273" spans="18:23">
       <c r="R273" s="62"/>
-    </row>
-    <row r="274" spans="18:18">
+      <c r="W273" s="62"/>
+    </row>
+    <row r="274" spans="18:23">
       <c r="R274" s="62"/>
-    </row>
-    <row r="275" spans="18:18">
+      <c r="W274" s="62"/>
+    </row>
+    <row r="275" spans="18:23">
       <c r="R275" s="62"/>
-    </row>
-    <row r="276" spans="18:18">
+      <c r="W275" s="62"/>
+    </row>
+    <row r="276" spans="18:23">
       <c r="R276" s="62"/>
-    </row>
-    <row r="277" spans="18:18">
+      <c r="W276" s="62"/>
+    </row>
+    <row r="277" spans="18:23">
       <c r="R277" s="62"/>
-    </row>
-    <row r="278" spans="18:18">
+      <c r="W277" s="62"/>
+    </row>
+    <row r="278" spans="18:23">
       <c r="R278" s="62"/>
-    </row>
-    <row r="279" spans="18:18">
+      <c r="W278" s="62"/>
+    </row>
+    <row r="279" spans="18:23">
       <c r="R279" s="62"/>
-    </row>
-    <row r="280" spans="18:18">
+      <c r="W279" s="62"/>
+    </row>
+    <row r="280" spans="18:23">
       <c r="R280" s="62"/>
-    </row>
-    <row r="281" spans="18:18">
+      <c r="W280" s="62"/>
+    </row>
+    <row r="281" spans="18:23">
       <c r="R281" s="62"/>
-    </row>
-    <row r="282" spans="18:18">
+      <c r="W281" s="62"/>
+    </row>
+    <row r="282" spans="18:23">
       <c r="R282" s="62"/>
-    </row>
-    <row r="283" spans="18:18">
+      <c r="W282" s="62"/>
+    </row>
+    <row r="283" spans="18:23">
       <c r="R283" s="62"/>
-    </row>
-    <row r="284" spans="18:18">
+      <c r="W283" s="62"/>
+    </row>
+    <row r="284" spans="18:23">
       <c r="R284" s="62"/>
-    </row>
-    <row r="285" spans="18:18">
+      <c r="W284" s="62"/>
+    </row>
+    <row r="285" spans="18:23">
       <c r="R285" s="62"/>
-    </row>
-    <row r="286" spans="18:18">
+      <c r="W285" s="62"/>
+    </row>
+    <row r="286" spans="18:23">
       <c r="R286" s="62"/>
-    </row>
-    <row r="287" spans="18:18">
+      <c r="W286" s="62"/>
+    </row>
+    <row r="287" spans="18:23">
       <c r="R287" s="62"/>
-    </row>
-    <row r="288" spans="18:18">
+      <c r="W287" s="62"/>
+    </row>
+    <row r="288" spans="18:23">
       <c r="R288" s="62"/>
-    </row>
-    <row r="289" spans="18:18">
+      <c r="W288" s="62"/>
+    </row>
+    <row r="289" spans="18:23">
       <c r="R289" s="62"/>
-    </row>
-    <row r="290" spans="18:18">
+      <c r="W289" s="62"/>
+    </row>
+    <row r="290" spans="18:23">
       <c r="R290" s="62"/>
-    </row>
-    <row r="291" spans="18:18">
+      <c r="W290" s="62"/>
+    </row>
+    <row r="291" spans="18:23">
       <c r="R291" s="62"/>
-    </row>
-    <row r="292" spans="18:18">
+      <c r="W291" s="62"/>
+    </row>
+    <row r="292" spans="18:23">
       <c r="R292" s="62"/>
-    </row>
-    <row r="293" spans="18:18">
+      <c r="W292" s="62"/>
+    </row>
+    <row r="293" spans="18:23">
       <c r="R293" s="62"/>
-    </row>
-    <row r="294" spans="18:18">
+      <c r="W293" s="62"/>
+    </row>
+    <row r="294" spans="18:23">
       <c r="R294" s="62"/>
-    </row>
-    <row r="295" spans="18:18">
+      <c r="W294" s="62"/>
+    </row>
+    <row r="295" spans="18:23">
       <c r="R295" s="62"/>
-    </row>
-    <row r="296" spans="18:18">
+      <c r="W295" s="62"/>
+    </row>
+    <row r="296" spans="18:23">
       <c r="R296" s="62"/>
-    </row>
-    <row r="297" spans="18:18">
+      <c r="W296" s="62"/>
+    </row>
+    <row r="297" spans="18:23">
       <c r="R297" s="62"/>
-    </row>
-    <row r="298" spans="18:18">
+      <c r="W297" s="62"/>
+    </row>
+    <row r="298" spans="18:23">
       <c r="R298" s="62"/>
-    </row>
-    <row r="299" spans="18:18">
+      <c r="W298" s="62"/>
+    </row>
+    <row r="299" spans="18:23">
       <c r="R299" s="62"/>
-    </row>
-    <row r="300" spans="18:18">
+      <c r="W299" s="62"/>
+    </row>
+    <row r="300" spans="18:23">
       <c r="R300" s="62"/>
-    </row>
-    <row r="301" spans="18:18">
+      <c r="W300" s="62"/>
+    </row>
+    <row r="301" spans="18:23">
       <c r="R301" s="62"/>
-    </row>
-    <row r="302" spans="18:18">
+      <c r="W301" s="62"/>
+    </row>
+    <row r="302" spans="18:23">
       <c r="R302" s="62"/>
-    </row>
-    <row r="303" spans="18:18">
+      <c r="W302" s="62"/>
+    </row>
+    <row r="303" spans="18:23">
       <c r="R303" s="62"/>
-    </row>
-    <row r="304" spans="18:18">
+      <c r="W303" s="62"/>
+    </row>
+    <row r="304" spans="18:23">
       <c r="R304" s="62"/>
-    </row>
-    <row r="305" spans="18:18">
+      <c r="W304" s="62"/>
+    </row>
+    <row r="305" spans="18:23">
       <c r="R305" s="62"/>
-    </row>
-    <row r="306" spans="18:18">
+      <c r="W305" s="62"/>
+    </row>
+    <row r="306" spans="18:23">
       <c r="R306" s="62"/>
-    </row>
-    <row r="307" spans="18:18">
+      <c r="W306" s="62"/>
+    </row>
+    <row r="307" spans="18:23">
       <c r="R307" s="62"/>
-    </row>
-    <row r="308" spans="18:18">
+      <c r="W307" s="62"/>
+    </row>
+    <row r="308" spans="18:23">
       <c r="R308" s="62"/>
-    </row>
-    <row r="309" spans="18:18">
+      <c r="W308" s="62"/>
+    </row>
+    <row r="309" spans="18:23">
       <c r="R309" s="62"/>
-    </row>
-    <row r="310" spans="18:18">
+      <c r="W309" s="62"/>
+    </row>
+    <row r="310" spans="18:23">
       <c r="R310" s="62"/>
-    </row>
-    <row r="311" spans="18:18">
+      <c r="W310" s="62"/>
+    </row>
+    <row r="311" spans="18:23">
       <c r="R311" s="62"/>
-    </row>
-    <row r="312" spans="18:18">
+      <c r="W311" s="62"/>
+    </row>
+    <row r="312" spans="18:23">
       <c r="R312" s="62"/>
-    </row>
-    <row r="313" spans="18:18">
+      <c r="W312" s="62"/>
+    </row>
+    <row r="313" spans="18:23">
       <c r="R313" s="62"/>
-    </row>
-    <row r="314" spans="18:18">
+      <c r="W313" s="62"/>
+    </row>
+    <row r="314" spans="18:23">
       <c r="R314" s="62"/>
-    </row>
-    <row r="315" spans="18:18">
+      <c r="W314" s="62"/>
+    </row>
+    <row r="315" spans="18:23">
       <c r="R315" s="62"/>
-    </row>
-    <row r="316" spans="18:18">
+      <c r="W315" s="62"/>
+    </row>
+    <row r="316" spans="18:23">
       <c r="R316" s="62"/>
-    </row>
-    <row r="317" spans="18:18">
+      <c r="W316" s="62"/>
+    </row>
+    <row r="317" spans="18:23">
       <c r="R317" s="62"/>
-    </row>
-    <row r="318" spans="18:18">
+      <c r="W317" s="62"/>
+    </row>
+    <row r="318" spans="18:23">
       <c r="R318" s="62"/>
-    </row>
-    <row r="319" spans="18:18">
+      <c r="W318" s="62"/>
+    </row>
+    <row r="319" spans="18:23">
       <c r="R319" s="62"/>
-    </row>
-    <row r="320" spans="18:18">
+      <c r="W319" s="62"/>
+    </row>
+    <row r="320" spans="18:23">
       <c r="R320" s="62"/>
-    </row>
-    <row r="321" spans="18:18">
+      <c r="W320" s="62"/>
+    </row>
+    <row r="321" spans="18:23">
       <c r="R321" s="62"/>
-    </row>
-    <row r="322" spans="18:18">
+      <c r="W321" s="62"/>
+    </row>
+    <row r="322" spans="18:23">
       <c r="R322" s="62"/>
-    </row>
-    <row r="323" spans="18:18">
+      <c r="W322" s="62"/>
+    </row>
+    <row r="323" spans="18:23">
       <c r="R323" s="62"/>
-    </row>
-    <row r="324" spans="18:18">
+      <c r="W323" s="62"/>
+    </row>
+    <row r="324" spans="18:23">
       <c r="R324" s="62"/>
-    </row>
-    <row r="325" spans="18:18">
+      <c r="W324" s="62"/>
+    </row>
+    <row r="325" spans="18:23">
       <c r="R325" s="62"/>
-    </row>
-    <row r="326" spans="18:18">
+      <c r="W325" s="62"/>
+    </row>
+    <row r="326" spans="18:23">
       <c r="R326" s="62"/>
-    </row>
-    <row r="327" spans="18:18">
+      <c r="W326" s="62"/>
+    </row>
+    <row r="327" spans="18:23">
       <c r="R327" s="62"/>
-    </row>
-    <row r="328" spans="18:18">
+      <c r="W327" s="62"/>
+    </row>
+    <row r="328" spans="18:23">
       <c r="R328" s="62"/>
-    </row>
-    <row r="329" spans="18:18">
+      <c r="W328" s="62"/>
+    </row>
+    <row r="329" spans="18:23">
       <c r="R329" s="62"/>
-    </row>
-    <row r="330" spans="18:18">
+      <c r="W329" s="62"/>
+    </row>
+    <row r="330" spans="18:23">
       <c r="R330" s="62"/>
-    </row>
-    <row r="331" spans="18:18">
+      <c r="W330" s="62"/>
+    </row>
+    <row r="331" spans="18:23">
       <c r="R331" s="62"/>
-    </row>
-    <row r="332" spans="18:18">
+      <c r="W331" s="62"/>
+    </row>
+    <row r="332" spans="18:23">
       <c r="R332" s="62"/>
-    </row>
-    <row r="333" spans="18:18">
+      <c r="W332" s="62"/>
+    </row>
+    <row r="333" spans="18:23">
       <c r="R333" s="62"/>
-    </row>
-    <row r="334" spans="18:18">
+      <c r="W333" s="62"/>
+    </row>
+    <row r="334" spans="18:23">
       <c r="R334" s="62"/>
-    </row>
-    <row r="335" spans="18:18">
+      <c r="W334" s="62"/>
+    </row>
+    <row r="335" spans="18:23">
       <c r="R335" s="62"/>
-    </row>
-    <row r="336" spans="18:18">
+      <c r="W335" s="62"/>
+    </row>
+    <row r="336" spans="18:23">
       <c r="R336" s="62"/>
-    </row>
-    <row r="337" spans="18:18">
+      <c r="W336" s="62"/>
+    </row>
+    <row r="337" spans="18:23">
       <c r="R337" s="62"/>
-    </row>
-    <row r="338" spans="18:18">
+      <c r="W337" s="62"/>
+    </row>
+    <row r="338" spans="18:23">
       <c r="R338" s="62"/>
-    </row>
-    <row r="339" spans="18:18">
+      <c r="W338" s="62"/>
+    </row>
+    <row r="339" spans="18:23">
       <c r="R339" s="62"/>
-    </row>
-    <row r="340" spans="18:18">
+      <c r="W339" s="62"/>
+    </row>
+    <row r="340" spans="18:23">
       <c r="R340" s="62"/>
-    </row>
-    <row r="341" spans="18:18">
+      <c r="W340" s="62"/>
+    </row>
+    <row r="341" spans="18:23">
       <c r="R341" s="62"/>
-    </row>
-    <row r="342" spans="18:18">
+      <c r="W341" s="62"/>
+    </row>
+    <row r="342" spans="18:23">
       <c r="R342" s="62"/>
-    </row>
-    <row r="343" spans="18:18">
+      <c r="W342" s="62"/>
+    </row>
+    <row r="343" spans="18:23">
       <c r="R343" s="62"/>
-    </row>
-    <row r="344" spans="18:18">
+      <c r="W343" s="62"/>
+    </row>
+    <row r="344" spans="18:23">
       <c r="R344" s="62"/>
-    </row>
-    <row r="345" spans="18:18">
+      <c r="W344" s="62"/>
+    </row>
+    <row r="345" spans="18:23">
       <c r="R345" s="62"/>
-    </row>
-    <row r="346" spans="18:18">
+      <c r="W345" s="62"/>
+    </row>
+    <row r="346" spans="18:23">
       <c r="R346" s="62"/>
-    </row>
-    <row r="347" spans="18:18">
+      <c r="W346" s="62"/>
+    </row>
+    <row r="347" spans="18:23">
       <c r="R347" s="62"/>
-    </row>
-    <row r="348" spans="18:18">
+      <c r="W347" s="62"/>
+    </row>
+    <row r="348" spans="18:23">
       <c r="R348" s="62"/>
-    </row>
-    <row r="349" spans="18:18">
+      <c r="W348" s="62"/>
+    </row>
+    <row r="349" spans="18:23">
       <c r="R349" s="62"/>
-    </row>
-    <row r="350" spans="18:18">
+      <c r="W349" s="62"/>
+    </row>
+    <row r="350" spans="18:23">
       <c r="R350" s="62"/>
-    </row>
-    <row r="351" spans="18:18">
+      <c r="W350" s="62"/>
+    </row>
+    <row r="351" spans="18:23">
       <c r="R351" s="62"/>
-    </row>
-    <row r="352" spans="18:18">
+      <c r="W351" s="62"/>
+    </row>
+    <row r="352" spans="18:23">
       <c r="R352" s="62"/>
-    </row>
-    <row r="353" spans="18:18">
+      <c r="W352" s="62"/>
+    </row>
+    <row r="353" spans="18:23">
       <c r="R353" s="62"/>
-    </row>
-    <row r="354" spans="18:18">
+      <c r="W353" s="62"/>
+    </row>
+    <row r="354" spans="18:23">
       <c r="R354" s="62"/>
-    </row>
-    <row r="355" spans="18:18">
+      <c r="W354" s="62"/>
+    </row>
+    <row r="355" spans="18:23">
       <c r="R355" s="62"/>
-    </row>
-    <row r="356" spans="18:18">
+      <c r="W355" s="62"/>
+    </row>
+    <row r="356" spans="18:23">
       <c r="R356" s="62"/>
-    </row>
-    <row r="357" spans="18:18">
+      <c r="W356" s="62"/>
+    </row>
+    <row r="357" spans="18:23">
       <c r="R357" s="62"/>
-    </row>
-    <row r="358" spans="18:18">
+      <c r="W357" s="62"/>
+    </row>
+    <row r="358" spans="18:23">
       <c r="R358" s="62"/>
-    </row>
-    <row r="359" spans="18:18">
+      <c r="W358" s="62"/>
+    </row>
+    <row r="359" spans="18:23">
       <c r="R359" s="62"/>
-    </row>
-    <row r="360" spans="18:18">
+      <c r="W359" s="62"/>
+    </row>
+    <row r="360" spans="18:23">
       <c r="R360" s="62"/>
-    </row>
-    <row r="361" spans="18:18">
+      <c r="W360" s="62"/>
+    </row>
+    <row r="361" spans="18:23">
       <c r="R361" s="62"/>
-    </row>
-    <row r="362" spans="18:18">
+      <c r="W361" s="62"/>
+    </row>
+    <row r="362" spans="18:23">
       <c r="R362" s="62"/>
-    </row>
-    <row r="363" spans="18:18">
+      <c r="W362" s="62"/>
+    </row>
+    <row r="363" spans="18:23">
       <c r="R363" s="62"/>
-    </row>
-    <row r="364" spans="18:18">
+      <c r="W363" s="62"/>
+    </row>
+    <row r="364" spans="18:23">
       <c r="R364" s="62"/>
-    </row>
-    <row r="365" spans="18:18">
+      <c r="W364" s="62"/>
+    </row>
+    <row r="365" spans="18:23">
       <c r="R365" s="62"/>
-    </row>
-    <row r="366" spans="18:18">
+      <c r="W365" s="62"/>
+    </row>
+    <row r="366" spans="18:23">
       <c r="R366" s="62"/>
-    </row>
-    <row r="367" spans="18:18">
+      <c r="W366" s="62"/>
+    </row>
+    <row r="367" spans="18:23">
       <c r="R367" s="62"/>
-    </row>
-    <row r="368" spans="18:18">
+      <c r="W367" s="62"/>
+    </row>
+    <row r="368" spans="18:23">
       <c r="R368" s="62"/>
-    </row>
-    <row r="369" spans="18:18">
+      <c r="W368" s="62"/>
+    </row>
+    <row r="369" spans="18:23">
       <c r="R369" s="62"/>
-    </row>
-    <row r="370" spans="18:18">
+      <c r="W369" s="62"/>
+    </row>
+    <row r="370" spans="18:23">
       <c r="R370" s="62"/>
-    </row>
-    <row r="371" spans="18:18">
+      <c r="W370" s="62"/>
+    </row>
+    <row r="371" spans="18:23">
       <c r="R371" s="62"/>
-    </row>
-    <row r="372" spans="18:18">
+      <c r="W371" s="62"/>
+    </row>
+    <row r="372" spans="18:23">
       <c r="R372" s="62"/>
-    </row>
-    <row r="373" spans="18:18">
+      <c r="W372" s="62"/>
+    </row>
+    <row r="373" spans="18:23">
       <c r="R373" s="62"/>
-    </row>
-    <row r="374" spans="18:18">
+      <c r="W373" s="62"/>
+    </row>
+    <row r="374" spans="18:23">
       <c r="R374" s="62"/>
-    </row>
-    <row r="375" spans="18:18">
+      <c r="W374" s="62"/>
+    </row>
+    <row r="375" spans="18:23">
       <c r="R375" s="62"/>
-    </row>
-    <row r="376" spans="18:18">
+      <c r="W375" s="62"/>
+    </row>
+    <row r="376" spans="18:23">
       <c r="R376" s="62"/>
-    </row>
-    <row r="377" spans="18:18">
+      <c r="W376" s="62"/>
+    </row>
+    <row r="377" spans="18:23">
       <c r="R377" s="62"/>
+      <c r="W377" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24803,15 +25216,15 @@
         <v>784</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1">
       <c r="A2" s="24" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>1800</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>1801</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>1247</v>
@@ -24826,7 +25239,7 @@
         <v>786</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
   </sheetData>
@@ -27274,7 +27687,7 @@
         <v>1222</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -27294,7 +27707,7 @@
         <v>1138</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -27314,7 +27727,7 @@
         <v>1138</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -27331,10 +27744,10 @@
         <v>818</v>
       </c>
       <c r="E94" s="41" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>1804</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -27351,10 +27764,10 @@
         <v>818</v>
       </c>
       <c r="E95" s="41" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -27371,10 +27784,10 @@
         <v>818</v>
       </c>
       <c r="E96" s="41" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -27391,10 +27804,10 @@
         <v>818</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G97" s="41"/>
     </row>
@@ -27412,10 +27825,10 @@
         <v>818</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G98" s="41"/>
     </row>
@@ -27433,10 +27846,10 @@
         <v>818</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G99" s="41"/>
     </row>
@@ -27454,10 +27867,10 @@
         <v>818</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G100" s="41"/>
     </row>
@@ -27475,10 +27888,10 @@
         <v>818</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G101" s="41"/>
     </row>
@@ -27493,13 +27906,13 @@
         <v>844</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E102" s="41" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F102" s="62" t="s">
         <v>1813</v>
-      </c>
-      <c r="F102" s="62" t="s">
-        <v>1814</v>
       </c>
       <c r="G102" s="41"/>
     </row>

--- a/test/files/BFR5-Household-Questionnaire-v6-jef.xlsx
+++ b/test/files/BFR5-Household-Questionnaire-v6-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26540" tabRatio="420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -5597,9 +5597,6 @@
     <t>Added ppp_form_title.</t>
   </si>
   <si>
-    <t>ppp_form_title::French</t>
-  </si>
-  <si>
     <r>
       <t>BFR5-Household-Questionnaire-</t>
     </r>
@@ -5674,6 +5671,9 @@
   </si>
   <si>
     <t>ppp_input::Français</t>
+  </si>
+  <si>
+    <t>ppp_form_title::Français</t>
   </si>
 </sst>
 </file>
@@ -8250,7 +8250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IX377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8328,7 +8328,7 @@
         <v>1770</v>
       </c>
       <c r="R1" s="62" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="S1" s="62" t="s">
         <v>1165</v>
@@ -8343,7 +8343,7 @@
         <v>1164</v>
       </c>
       <c r="W1" s="62" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="X1" t="s">
         <v>16</v>
@@ -9066,7 +9066,7 @@
         <v>1780</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="U12" s="48"/>
       <c r="W12" s="1" t="s">
@@ -9096,7 +9096,7 @@
         <v>1780</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="U13" s="48"/>
       <c r="W13" s="1" t="s">
@@ -9126,7 +9126,7 @@
         <v>1780</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="U14" s="48"/>
       <c r="W14" s="1" t="s">
@@ -9156,7 +9156,7 @@
         <v>1780</v>
       </c>
       <c r="R15" s="66" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="U15" s="48"/>
       <c r="W15" s="66" t="s">
@@ -11618,7 +11618,7 @@
       <c r="N63" s="62"/>
       <c r="O63" s="62"/>
       <c r="P63" s="99" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="Q63" s="62" t="s">
         <v>1779</v>
@@ -25183,8 +25183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25216,15 +25216,15 @@
         <v>784</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>1798</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1">
       <c r="A2" s="24" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>1799</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>1800</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>1247</v>
@@ -25239,7 +25239,7 @@
         <v>786</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -27744,10 +27744,10 @@
         <v>818</v>
       </c>
       <c r="E94" s="41" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>1803</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -27764,10 +27764,10 @@
         <v>818</v>
       </c>
       <c r="E95" s="41" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -27784,10 +27784,10 @@
         <v>818</v>
       </c>
       <c r="E96" s="41" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -27804,10 +27804,10 @@
         <v>818</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G97" s="41"/>
     </row>
@@ -27825,10 +27825,10 @@
         <v>818</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G98" s="41"/>
     </row>
@@ -27846,10 +27846,10 @@
         <v>818</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G99" s="41"/>
     </row>
@@ -27867,10 +27867,10 @@
         <v>818</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G100" s="41"/>
     </row>
@@ -27888,10 +27888,10 @@
         <v>818</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G101" s="41"/>
     </row>
@@ -27906,13 +27906,13 @@
         <v>844</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E102" s="41" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F102" s="62" t="s">
         <v>1812</v>
-      </c>
-      <c r="F102" s="62" t="s">
-        <v>1813</v>
       </c>
       <c r="G102" s="41"/>
     </row>

--- a/test/files/BFR5-Household-Questionnaire-v6-jef.xlsx
+++ b/test/files/BFR5-Household-Questionnaire-v6-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="420"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="1821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="1831">
   <si>
     <t>type</t>
   </si>
@@ -5674,6 +5674,36 @@
   </si>
   <si>
     <t>ppp_form_title::Français</t>
+  </si>
+  <si>
+    <t>106 ≠ 1 AND 107 ≠ 1</t>
+  </si>
+  <si>
+    <t>108 = 1</t>
+  </si>
+  <si>
+    <t>108 = 2</t>
+  </si>
+  <si>
+    <t>Total of "102 = 'household head'" = 0</t>
+  </si>
+  <si>
+    <t>Total de "102 = 'chef de ménage'" = 0</t>
+  </si>
+  <si>
+    <t>Total of "102 = 'household head'" &gt; 1</t>
+  </si>
+  <si>
+    <t>Total de "102 = 'chef de ménage'" &gt; 1</t>
+  </si>
+  <si>
+    <t>Total of 101a ≠ 1</t>
+  </si>
+  <si>
+    <t>Several errors/warnings in roster</t>
+  </si>
+  <si>
+    <t>Added ppp_relevants in EN and FR.</t>
   </si>
 </sst>
 </file>
@@ -6009,7 +6039,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="816">
+  <cellStyleXfs count="832">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6498,6 +6528,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7132,7 +7178,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="816">
+  <cellStyles count="832">
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
@@ -7539,6 +7585,14 @@
     <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="831" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
@@ -7945,6 +7999,14 @@
     <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="830" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="55" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="126"/>
@@ -8250,11 +8312,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IX377"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11158,15 +11220,18 @@
       <c r="O54" s="66"/>
       <c r="P54" s="66"/>
       <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
       <c r="S54" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="T54" s="66"/>
+      <c r="T54" s="62" t="s">
+        <v>1821</v>
+      </c>
       <c r="U54" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="V54" s="66"/>
+      <c r="V54" s="62" t="s">
+        <v>1821</v>
+      </c>
       <c r="W54" s="62"/>
       <c r="X54" s="105" t="s">
         <v>159</v>
@@ -11474,9 +11539,7 @@
       <c r="N60" s="62"/>
       <c r="O60" s="62"/>
       <c r="P60" s="62"/>
-      <c r="Q60" s="62" t="s">
-        <v>1779</v>
-      </c>
+      <c r="Q60" s="62"/>
       <c r="R60" s="71"/>
       <c r="S60" s="62" t="s">
         <v>176</v>
@@ -11531,11 +11594,15 @@
       <c r="S61" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="T61" s="62"/>
+      <c r="T61" s="62" t="s">
+        <v>1822</v>
+      </c>
       <c r="U61" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="V61" s="62"/>
+      <c r="V61" s="62" t="s">
+        <v>1822</v>
+      </c>
       <c r="W61" s="62"/>
       <c r="X61" s="105" t="s">
         <v>181</v>
@@ -11577,11 +11644,15 @@
       <c r="S62" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="T62" s="62"/>
+      <c r="T62" s="62" t="s">
+        <v>1823</v>
+      </c>
       <c r="U62" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="V62" s="62"/>
+      <c r="V62" s="62" t="s">
+        <v>1823</v>
+      </c>
       <c r="W62" s="62"/>
       <c r="X62" s="105" t="s">
         <v>185</v>
@@ -12297,11 +12368,15 @@
       <c r="S77" s="66" t="s">
         <v>1578</v>
       </c>
-      <c r="T77" s="66"/>
+      <c r="T77" s="66" t="s">
+        <v>1824</v>
+      </c>
       <c r="U77" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="V77" s="66"/>
+      <c r="V77" s="66" t="s">
+        <v>1825</v>
+      </c>
       <c r="W77" s="66"/>
       <c r="X77" s="105" t="s">
         <v>228</v>
@@ -12352,11 +12427,15 @@
       <c r="S78" s="66" t="s">
         <v>1580</v>
       </c>
-      <c r="T78" s="66"/>
+      <c r="T78" s="66" t="s">
+        <v>1826</v>
+      </c>
       <c r="U78" s="73" t="s">
         <v>1190</v>
       </c>
-      <c r="V78" s="66"/>
+      <c r="V78" s="66" t="s">
+        <v>1827</v>
+      </c>
       <c r="W78" s="66"/>
       <c r="X78" s="105" t="s">
         <v>1692</v>
@@ -12446,11 +12525,15 @@
       <c r="S80" s="63" t="s">
         <v>1206</v>
       </c>
-      <c r="T80" s="62"/>
+      <c r="T80" s="62" t="s">
+        <v>1828</v>
+      </c>
       <c r="U80" s="63" t="s">
         <v>1581</v>
       </c>
-      <c r="V80" s="62"/>
+      <c r="V80" s="62" t="s">
+        <v>1828</v>
+      </c>
       <c r="W80" s="66"/>
       <c r="X80" s="107" t="s">
         <v>1767</v>
@@ -25183,7 +25266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -25805,11 +25888,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -27916,6 +27999,26 @@
       </c>
       <c r="G102" s="41"/>
     </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="8">
+        <v>6</v>
+      </c>
+      <c r="B103" s="38">
+        <v>43011</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F103" s="62" t="s">
+        <v>1830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
